--- a/result.xlsx
+++ b/result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\ChangValiante2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDF02E4-047B-43CA-A26F-98B2D14E53EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E0237-B7BB-4893-B316-B9DBE1CCB73D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="22485" windowHeight="10800" activeTab="1" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
+    <workbookView xWindow="24690" yWindow="3060" windowWidth="4110" windowHeight="12540" firstSheet="2" activeTab="2" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="19815003" sheetId="2" r:id="rId2"/>
+    <sheet name="19815002" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Treatment Group</t>
   </si>
@@ -56,6 +57,78 @@
   </si>
   <si>
     <t>Dominant Frequency</t>
+  </si>
+  <si>
+    <t>KS Test, 1 vs 2</t>
+  </si>
+  <si>
+    <t>one-way ANOVA, duration</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Prob&gt;F</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Multiple Comparison (Tukey-Kramer method), duration</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>one-way ANOVA, intensity</t>
+  </si>
+  <si>
+    <t>Multiple Comparison (Tukey-Kramer method), intensity</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
@@ -421,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D1BC1-BCFB-4180-BE41-BE1E1D1CBB64}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H4"/>
     </sheetView>
   </sheetViews>
@@ -537,4 +610,489 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3807CB4-D1A4-4513-846F-E9DCCDF160E3}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>22.742417454545478</v>
+      </c>
+      <c r="C2">
+        <v>4.0234634445268567</v>
+      </c>
+      <c r="D2">
+        <v>0.47933946827696028</v>
+      </c>
+      <c r="E2">
+        <v>751841.96765588049</v>
+      </c>
+      <c r="F2">
+        <v>82288.330062513443</v>
+      </c>
+      <c r="G2">
+        <v>0.66800542005357211</v>
+      </c>
+      <c r="H2">
+        <v>1.5135674130029031E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>110.94317364705891</v>
+      </c>
+      <c r="C3">
+        <v>28.143176716420594</v>
+      </c>
+      <c r="D3">
+        <v>0.49145949337626893</v>
+      </c>
+      <c r="E3">
+        <v>265310.85252200277</v>
+      </c>
+      <c r="F3">
+        <v>89069.458410322419</v>
+      </c>
+      <c r="G3">
+        <v>2.1631803025201979E-3</v>
+      </c>
+      <c r="H3">
+        <v>0.67864172233188191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>25.964484000000652</v>
+      </c>
+      <c r="C4">
+        <v>3.3469882949679772</v>
+      </c>
+      <c r="D4">
+        <v>0.52378414335727796</v>
+      </c>
+      <c r="E4">
+        <v>852630.3575069051</v>
+      </c>
+      <c r="F4">
+        <v>78706.242449951722</v>
+      </c>
+      <c r="G4">
+        <v>0.97764791521881078</v>
+      </c>
+      <c r="H4">
+        <v>7.1108833465172161E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5.5889117092916095E-7</v>
+      </c>
+      <c r="E6">
+        <v>5.5889117092916095E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>67715.660600233605</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>33857.830300116802</v>
+      </c>
+      <c r="E10">
+        <v>86.526439100663367</v>
+      </c>
+      <c r="F10">
+        <v>7.4960366535507371E-14</v>
+      </c>
+      <c r="G10">
+        <v>7.4960366535507371E-14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>12912.913226487886</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>391.30040080266321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>80628.573826721491</v>
+      </c>
+      <c r="C12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-106.98317824021552</v>
+      </c>
+      <c r="D16">
+        <v>-88.200756192513438</v>
+      </c>
+      <c r="E16">
+        <v>-69.418334144811354</v>
+      </c>
+      <c r="F16">
+        <v>9.5844077119267013E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-25.776340281950993</v>
+      </c>
+      <c r="D17">
+        <v>-3.2220665454551849</v>
+      </c>
+      <c r="E17">
+        <v>19.332207191040624</v>
+      </c>
+      <c r="F17">
+        <v>0.93464253367965688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>64.167642513732687</v>
+      </c>
+      <c r="D18">
+        <v>84.978689647058246</v>
+      </c>
+      <c r="E18">
+        <v>105.78973678038381</v>
+      </c>
+      <c r="F18">
+        <v>1.0031138142352347E-9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2557544001293.2295</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1278772000646.6147</v>
+      </c>
+      <c r="E22">
+        <v>177.30105294895938</v>
+      </c>
+      <c r="F22">
+        <v>2.2238674409042316E-18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>238010295593.03564</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>7212433199.7889585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>2795554296886.2651</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>405893.56022741104</v>
+      </c>
+      <c r="D28">
+        <v>486531.11513387761</v>
+      </c>
+      <c r="E28">
+        <v>567168.67004034412</v>
+      </c>
+      <c r="F28">
+        <v>9.5720897874684852E-10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-197619.43124617153</v>
+      </c>
+      <c r="D29">
+        <v>-100788.38985102484</v>
+      </c>
+      <c r="E29">
+        <v>-3957.3484558781347</v>
+      </c>
+      <c r="F29">
+        <v>3.9926590541327522E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-676666.44605632382</v>
+      </c>
+      <c r="D30">
+        <v>-587319.50498490245</v>
+      </c>
+      <c r="E30">
+        <v>-497972.56391348114</v>
+      </c>
+      <c r="F30">
+        <v>9.5720764647921897E-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ChangValiante2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766E0237-B7BB-4893-B316-B9DBE1CCB73D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF660F6-C1B7-4978-B4C4-69485C84A636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24690" yWindow="3060" windowWidth="4110" windowHeight="12540" firstSheet="2" activeTab="2" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="22485" windowHeight="10800" activeTab="5" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="19815003" sheetId="2" r:id="rId2"/>
-    <sheet name="19815002" sheetId="3" r:id="rId3"/>
+    <sheet name="19815002" sheetId="3" r:id="rId2"/>
+    <sheet name="19815003" sheetId="2" r:id="rId3"/>
+    <sheet name="19815005" sheetId="4" r:id="rId4"/>
+    <sheet name="19816008" sheetId="5" r:id="rId5"/>
+    <sheet name="19816009" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="32">
   <si>
     <t>Treatment Group</t>
   </si>
@@ -491,132 +494,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D1BC1-BCFB-4180-BE41-BE1E1D1CBB64}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>25.79473371428568</v>
-      </c>
-      <c r="C2">
-        <v>3.2815668810475951</v>
-      </c>
-      <c r="D2">
-        <v>6.4523426399020964E-2</v>
-      </c>
-      <c r="E2">
-        <v>496630.7322546668</v>
-      </c>
-      <c r="F2">
-        <v>35950.177910864295</v>
-      </c>
-      <c r="G2">
-        <v>0.72818201724075216</v>
-      </c>
-      <c r="H2">
-        <v>7.7812617320227595E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>91.485243428571522</v>
-      </c>
-      <c r="C3">
-        <v>40.166025541685393</v>
-      </c>
-      <c r="D3">
-        <v>6.3005260391112801E-3</v>
-      </c>
-      <c r="E3">
-        <v>260462.25621355904</v>
-      </c>
-      <c r="F3">
-        <v>82408.938646571638</v>
-      </c>
-      <c r="G3">
-        <v>0.63994338732129163</v>
-      </c>
-      <c r="H3">
-        <v>0.26200439582709589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>26.731711999999789</v>
-      </c>
-      <c r="C4">
-        <v>3.7956527403481877</v>
-      </c>
-      <c r="D4">
-        <v>0.25188533704788679</v>
-      </c>
-      <c r="E4">
-        <v>528166.61859559885</v>
-      </c>
-      <c r="F4">
-        <v>62353.216208393787</v>
-      </c>
-      <c r="G4">
-        <v>0.99</v>
-      </c>
-      <c r="H4">
-        <v>2.1441635404497839E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3807CB4-D1A4-4513-846F-E9DCCDF160E3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
@@ -1095,4 +976,1391 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D1BC1-BCFB-4180-BE41-BE1E1D1CBB64}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25.79473371428568</v>
+      </c>
+      <c r="C2">
+        <v>3.2815668810475951</v>
+      </c>
+      <c r="D2">
+        <v>6.4523426399020964E-2</v>
+      </c>
+      <c r="E2">
+        <v>496630.7322546668</v>
+      </c>
+      <c r="F2">
+        <v>35950.177910864295</v>
+      </c>
+      <c r="G2">
+        <v>0.72818201724075216</v>
+      </c>
+      <c r="H2">
+        <v>7.7812617320227595E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>91.485243428571522</v>
+      </c>
+      <c r="C3">
+        <v>40.166025541685393</v>
+      </c>
+      <c r="D3">
+        <v>6.3005260391112801E-3</v>
+      </c>
+      <c r="E3">
+        <v>260462.25621355904</v>
+      </c>
+      <c r="F3">
+        <v>82408.938646571638</v>
+      </c>
+      <c r="G3">
+        <v>0.63994338732129163</v>
+      </c>
+      <c r="H3">
+        <v>0.26200439582709589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>26.731711999999789</v>
+      </c>
+      <c r="C4">
+        <v>3.7956527403481877</v>
+      </c>
+      <c r="D4">
+        <v>0.25188533704788679</v>
+      </c>
+      <c r="E4">
+        <v>528166.61859559885</v>
+      </c>
+      <c r="F4">
+        <v>62353.216208393787</v>
+      </c>
+      <c r="G4">
+        <v>0.99</v>
+      </c>
+      <c r="H4">
+        <v>2.1441635404497839E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4.488653224853145E-4</v>
+      </c>
+      <c r="E6">
+        <v>4.488653224853145E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>19379.530810616325</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>9689.7654053081624</v>
+      </c>
+      <c r="E10">
+        <v>16.780515881562373</v>
+      </c>
+      <c r="F10">
+        <v>9.4706643758040457E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>9816.5046326872362</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>577.44144898160209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>29196.035443303561</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-98.641448371914294</v>
+      </c>
+      <c r="D16">
+        <v>-65.690509714285838</v>
+      </c>
+      <c r="E16">
+        <v>-32.739571056657383</v>
+      </c>
+      <c r="F16">
+        <v>2.4221191377715723E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-35.2334026127538</v>
+      </c>
+      <c r="D17">
+        <v>-0.93697828571411179</v>
+      </c>
+      <c r="E17">
+        <v>33.359446041325576</v>
+      </c>
+      <c r="F17">
+        <v>0.99729600581631395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>30.457107101532046</v>
+      </c>
+      <c r="D18">
+        <v>64.753531428571733</v>
+      </c>
+      <c r="E18">
+        <v>99.049955755611421</v>
+      </c>
+      <c r="F18">
+        <v>4.2485864188834821E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>289236384543.10309</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>144618192271.55154</v>
+      </c>
+      <c r="E22">
+        <v>36.185673802223185</v>
+      </c>
+      <c r="F22">
+        <v>7.4753275267876609E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>67941508621.716736</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>3996559330.68922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>357177893164.81982</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>149480.88276492461</v>
+      </c>
+      <c r="D28">
+        <v>236168.47604110785</v>
+      </c>
+      <c r="E28">
+        <v>322856.06931729108</v>
+      </c>
+      <c r="F28">
+        <v>6.2477603421928762E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-121763.19409022188</v>
+      </c>
+      <c r="D29">
+        <v>-31535.886340932106</v>
+      </c>
+      <c r="E29">
+        <v>58691.421408357666</v>
+      </c>
+      <c r="F29">
+        <v>0.64965090944622661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-357931.67013132974</v>
+      </c>
+      <c r="D30">
+        <v>-267704.36238203995</v>
+      </c>
+      <c r="E30">
+        <v>-177477.05463275017</v>
+      </c>
+      <c r="F30">
+        <v>2.0527572812678585E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6B136-55F7-4310-83AF-4B88A434EA1D}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>17.819573333333363</v>
+      </c>
+      <c r="C2">
+        <v>1.6736600278335607</v>
+      </c>
+      <c r="D2">
+        <v>0.19907812462808785</v>
+      </c>
+      <c r="E2">
+        <v>142176.53365916581</v>
+      </c>
+      <c r="F2">
+        <v>15372.18750462659</v>
+      </c>
+      <c r="G2">
+        <v>0.61925843986360107</v>
+      </c>
+      <c r="H2">
+        <v>2.0946880363637232E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>170.36854892307687</v>
+      </c>
+      <c r="C3">
+        <v>111.20358787542882</v>
+      </c>
+      <c r="D3">
+        <v>2.3477190644569956E-3</v>
+      </c>
+      <c r="E3">
+        <v>75072.087427584382</v>
+      </c>
+      <c r="F3">
+        <v>35184.173641894427</v>
+      </c>
+      <c r="G3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3">
+        <v>0.27692246001814746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>26.746747999999872</v>
+      </c>
+      <c r="C4">
+        <v>8.1469239450114213</v>
+      </c>
+      <c r="D4">
+        <v>0.29752797520616392</v>
+      </c>
+      <c r="E4">
+        <v>105279.28103313544</v>
+      </c>
+      <c r="F4">
+        <v>32001.146474360583</v>
+      </c>
+      <c r="G4">
+        <v>0.63117017361274996</v>
+      </c>
+      <c r="H4">
+        <v>6.3660959619171731E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>9.670802102524637E-6</v>
+      </c>
+      <c r="E6">
+        <v>3.1275875691518369E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>199470.35642922879</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>99735.178214614396</v>
+      </c>
+      <c r="E10">
+        <v>28.601461556792909</v>
+      </c>
+      <c r="F10">
+        <v>1.2607918419048826E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>149943.82908414217</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>3487.0657926544691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>349414.18551337096</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-214.70697324792286</v>
+      </c>
+      <c r="D16">
+        <v>-152.54897558974349</v>
+      </c>
+      <c r="E16">
+        <v>-90.390977931564109</v>
+      </c>
+      <c r="F16">
+        <v>1.2511392735170546E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-64.955636600850568</v>
+      </c>
+      <c r="D17">
+        <v>-8.9271746666664953</v>
+      </c>
+      <c r="E17">
+        <v>47.101287267517584</v>
+      </c>
+      <c r="F17">
+        <v>0.92100532072407748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>94.258729827308358</v>
+      </c>
+      <c r="D18">
+        <v>143.62180092307699</v>
+      </c>
+      <c r="E18">
+        <v>192.98487201884564</v>
+      </c>
+      <c r="F18">
+        <v>3.2071185596116436E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>24034952366.699596</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>12017476183.349798</v>
+      </c>
+      <c r="E22">
+        <v>12.822861083872262</v>
+      </c>
+      <c r="F22">
+        <v>4.2892564449291427E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>40299233728.264969</v>
+      </c>
+      <c r="C23">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>937191482.0526737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>64334186094.964569</v>
+      </c>
+      <c r="C24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>34880.322878038365</v>
+      </c>
+      <c r="D28">
+        <v>67104.446231581402</v>
+      </c>
+      <c r="E28">
+        <v>99328.569585124438</v>
+      </c>
+      <c r="F28">
+        <v>2.4852923588225551E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>7850.8203615113307</v>
+      </c>
+      <c r="D29">
+        <v>36897.252626030328</v>
+      </c>
+      <c r="E29">
+        <v>65943.684890549324</v>
+      </c>
+      <c r="F29">
+        <v>9.7827684718185814E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-55798.1352708099</v>
+      </c>
+      <c r="D30">
+        <v>-30207.193605551074</v>
+      </c>
+      <c r="E30">
+        <v>-4616.2519402922517</v>
+      </c>
+      <c r="F30">
+        <v>1.7303747030148364E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36909C10-8F85-4E7F-AFE6-5600F271C28A}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>27.506382000000038</v>
+      </c>
+      <c r="C2">
+        <v>7.5413813052962766</v>
+      </c>
+      <c r="D2">
+        <v>0.3414849237707776</v>
+      </c>
+      <c r="E2">
+        <v>1061835.6347029884</v>
+      </c>
+      <c r="F2">
+        <v>169594.70681153683</v>
+      </c>
+      <c r="G2">
+        <v>0.76343103030578086</v>
+      </c>
+      <c r="H2">
+        <v>3.14103305564295E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>32.063968000000081</v>
+      </c>
+      <c r="C3">
+        <v>1.3845708865581441</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1824684.1770303119</v>
+      </c>
+      <c r="F3">
+        <v>823021.24416006973</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.1451511290919214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.16880644816905757</v>
+      </c>
+      <c r="E6">
+        <v>0.12013476621679806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140FEA0-2006-4C2D-9E4F-075C96DB45AD}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19.046295652173928</v>
+      </c>
+      <c r="C2">
+        <v>7.0331918314206314</v>
+      </c>
+      <c r="D2">
+        <v>2.3591661108943226E-3</v>
+      </c>
+      <c r="E2">
+        <v>1074253.1113595597</v>
+      </c>
+      <c r="F2">
+        <v>492944.62865787151</v>
+      </c>
+      <c r="G2">
+        <v>0.66624614131752324</v>
+      </c>
+      <c r="H2">
+        <v>5.9584559508607526E-12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>25.22716444444438</v>
+      </c>
+      <c r="C3">
+        <v>8.1633466809550335</v>
+      </c>
+      <c r="D3">
+        <v>4.8696719792949332E-3</v>
+      </c>
+      <c r="E3">
+        <v>473964.0409877036</v>
+      </c>
+      <c r="F3">
+        <v>149435.7343532471</v>
+      </c>
+      <c r="G3">
+        <v>0.33481467481920496</v>
+      </c>
+      <c r="H3">
+        <v>1.387799714036575E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>18.197727999999945</v>
+      </c>
+      <c r="C4">
+        <v>13.33908712669046</v>
+      </c>
+      <c r="D4">
+        <v>1.1743031504373318E-2</v>
+      </c>
+      <c r="E4">
+        <v>767407.06695146987</v>
+      </c>
+      <c r="F4">
+        <v>341163.21327019873</v>
+      </c>
+      <c r="G4">
+        <v>6.9272034645751546E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.6602278229392873E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>8.8585492543120361E-4</v>
+      </c>
+      <c r="E6">
+        <v>7.777951721289083E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>568.36465749900242</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>284.18232874950121</v>
+      </c>
+      <c r="E10">
+        <v>4.0591463369192171</v>
+      </c>
+      <c r="F10">
+        <v>2.2896725538338117E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>3710.5495031635055</v>
+      </c>
+      <c r="C11">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>70.010367984217083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>4278.914160662508</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-11.905733991662316</v>
+      </c>
+      <c r="D16">
+        <v>-6.1808687922704486</v>
+      </c>
+      <c r="E16">
+        <v>-0.45600359287858083</v>
+      </c>
+      <c r="F16">
+        <v>3.1547808630888463E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-8.4002351270322588</v>
+      </c>
+      <c r="D17">
+        <v>0.84856765217398333</v>
+      </c>
+      <c r="E17">
+        <v>10.097370431380225</v>
+      </c>
+      <c r="F17">
+        <v>0.97339322649890259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>-2.076519097098501</v>
+      </c>
+      <c r="D18">
+        <v>7.0294364444444319</v>
+      </c>
+      <c r="E18">
+        <v>16.135391985987365</v>
+      </c>
+      <c r="F18">
+        <v>0.16001966250977551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>4477114545990.6172</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2238557272995.3086</v>
+      </c>
+      <c r="E22">
+        <v>18.229165897271702</v>
+      </c>
+      <c r="F22">
+        <v>9.4484260903996685E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>6508445648986.5137</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>122800861301.63234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>10985560194977.131</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>360524.61993185501</v>
+      </c>
+      <c r="D28">
+        <v>600289.07037185645</v>
+      </c>
+      <c r="E28">
+        <v>840053.52081185789</v>
+      </c>
+      <c r="F28">
+        <v>4.7153765769802902E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-80505.279745342152</v>
+      </c>
+      <c r="D29">
+        <v>306846.04440808995</v>
+      </c>
+      <c r="E29">
+        <v>694197.3685615221</v>
+      </c>
+      <c r="F29">
+        <v>0.14578965795733334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-674811.7307467279</v>
+      </c>
+      <c r="D30">
+        <v>-293443.02596376644</v>
+      </c>
+      <c r="E30">
+        <v>87925.67881919496</v>
+      </c>
+      <c r="F30">
+        <v>0.16186126691056135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF660F6-C1B7-4978-B4C4-69485C84A636}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6776F0-0232-4E88-92C3-35760E708835}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="22485" windowHeight="10800" activeTab="5" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
+    <workbookView xWindow="28995" yWindow="1560" windowWidth="22485" windowHeight="14865" firstSheet="2" activeTab="9" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="19815005" sheetId="4" r:id="rId4"/>
     <sheet name="19816008" sheetId="5" r:id="rId5"/>
     <sheet name="19816009" sheetId="6" r:id="rId6"/>
+    <sheet name="19816010(Controls)" sheetId="7" r:id="rId7"/>
+    <sheet name="19816010" sheetId="8" r:id="rId8"/>
+    <sheet name="19817000" sheetId="9" r:id="rId9"/>
+    <sheet name="19817001" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="37">
   <si>
     <t>Treatment Group</t>
   </si>
@@ -132,6 +136,21 @@
   </si>
   <si>
     <t>p-value</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Washout</t>
+  </si>
+  <si>
+    <t>EZA [20 uM]</t>
+  </si>
+  <si>
+    <t>ACTZ [30uM]</t>
   </si>
 </sst>
 </file>
@@ -493,6 +512,443 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F872D6E-0AC9-469B-AE4C-1F50B3D6C364}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36.095155200000022</v>
+      </c>
+      <c r="C2">
+        <v>0.90951380716690633</v>
+      </c>
+      <c r="D2">
+        <v>0.26105148444427539</v>
+      </c>
+      <c r="E2">
+        <v>181052.07422819408</v>
+      </c>
+      <c r="F2">
+        <v>41014.883945391768</v>
+      </c>
+      <c r="G2">
+        <v>0.95693926314988609</v>
+      </c>
+      <c r="H2">
+        <v>8.2558682289290974E-4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>38.027634461538518</v>
+      </c>
+      <c r="C3">
+        <v>3.119816968300086</v>
+      </c>
+      <c r="D3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E3">
+        <v>92098.495559872972</v>
+      </c>
+      <c r="F3">
+        <v>22477.376876326474</v>
+      </c>
+      <c r="G3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3">
+        <v>2.7755575615628914E-13</v>
+      </c>
+      <c r="J3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>32.039660307692571</v>
+      </c>
+      <c r="C4">
+        <v>4.3875425266050785</v>
+      </c>
+      <c r="D4">
+        <v>0.73120390136164382</v>
+      </c>
+      <c r="E4">
+        <v>130434.31164219043</v>
+      </c>
+      <c r="F4">
+        <v>35415.842762766952</v>
+      </c>
+      <c r="G4">
+        <v>0.66424390416212875</v>
+      </c>
+      <c r="H4">
+        <v>1.4724647751429565E-5</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.7639083842091202E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.7056185695896587E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>310.76844240464715</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>155.38422120232357</v>
+      </c>
+      <c r="E10">
+        <v>13.33779458841196</v>
+      </c>
+      <c r="F10">
+        <v>3.4531236698313807E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>477.64666242725428</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>11.649918595786691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>788.41510483190143</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-5.9854353052606095</v>
+      </c>
+      <c r="D16">
+        <v>-1.9324792615384965</v>
+      </c>
+      <c r="E16">
+        <v>2.1204767821836166</v>
+      </c>
+      <c r="F16">
+        <v>0.48382361491177506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-0.31209947369626523</v>
+      </c>
+      <c r="D17">
+        <v>4.0554948923074505</v>
+      </c>
+      <c r="E17">
+        <v>8.4230892583111654</v>
+      </c>
+      <c r="F17">
+        <v>7.3465364520585719E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3.1687041134256577</v>
+      </c>
+      <c r="D18">
+        <v>5.987974153845947</v>
+      </c>
+      <c r="E18">
+        <v>8.8072441942662358</v>
+      </c>
+      <c r="F18">
+        <v>1.9388613094029061E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>38453020771.219986</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>19226510385.609993</v>
+      </c>
+      <c r="E22">
+        <v>22.907940704863922</v>
+      </c>
+      <c r="F22">
+        <v>2.0930803310752993E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>34411077624.39061</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>839294576.20464897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>72864098395.610596</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>54552.848830839641</v>
+      </c>
+      <c r="D28">
+        <v>88953.578668321119</v>
+      </c>
+      <c r="E28">
+        <v>123354.30850580259</v>
+      </c>
+      <c r="F28">
+        <v>5.0122449746226039E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>13546.441751589562</v>
+      </c>
+      <c r="D29">
+        <v>50617.76258600365</v>
+      </c>
+      <c r="E29">
+        <v>87689.083420417737</v>
+      </c>
+      <c r="F29">
+        <v>5.2760635242423692E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-62265.250784583768</v>
+      </c>
+      <c r="D30">
+        <v>-38335.816082317469</v>
+      </c>
+      <c r="E30">
+        <v>-14406.381380051174</v>
+      </c>
+      <c r="F30">
+        <v>1.0129345447292826E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3807CB4-D1A4-4513-846F-E9DCCDF160E3}">
   <dimension ref="A1:L30"/>
@@ -1944,7 +2400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140FEA0-2006-4C2D-9E4F-075C96DB45AD}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
@@ -2363,4 +2819,1306 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B24916-B485-4B20-8D91-799352FF149C}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16.322655999999977</v>
+      </c>
+      <c r="C2">
+        <v>2.9424169821891368</v>
+      </c>
+      <c r="D2">
+        <v>0.11292742391942075</v>
+      </c>
+      <c r="E2">
+        <v>844118.23774678353</v>
+      </c>
+      <c r="F2">
+        <v>311823.52561919269</v>
+      </c>
+      <c r="G2">
+        <v>0.62941903200189997</v>
+      </c>
+      <c r="H2">
+        <v>5.9851476119521241E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>17.513164800000048</v>
+      </c>
+      <c r="C3">
+        <v>2.1669918320222328</v>
+      </c>
+      <c r="D3">
+        <v>0.97437102323940872</v>
+      </c>
+      <c r="E3">
+        <v>745498.92209877563</v>
+      </c>
+      <c r="F3">
+        <v>141056.39507136738</v>
+      </c>
+      <c r="G3">
+        <v>0.14875448388413429</v>
+      </c>
+      <c r="H3">
+        <v>2.6243395344848208E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>17.428735999999844</v>
+      </c>
+      <c r="C4">
+        <v>6.3177128811004168</v>
+      </c>
+      <c r="D4">
+        <v>0.91258569453599991</v>
+      </c>
+      <c r="E4">
+        <v>705532.75100975286</v>
+      </c>
+      <c r="F4">
+        <v>340482.55894694891</v>
+      </c>
+      <c r="G4">
+        <v>4.6715959249958349E-3</v>
+      </c>
+      <c r="H4">
+        <v>2.9476094044156298E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.36700138509022512</v>
+      </c>
+      <c r="E6">
+        <v>0.84705434199782681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>5.1044735026354244</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2.5522367513177122</v>
+      </c>
+      <c r="E10">
+        <v>0.1365667207725009</v>
+      </c>
+      <c r="F10">
+        <v>0.87349609361592861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>261.63998312569015</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>18.688570223263582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>266.74445662832557</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-8.0418253179129646</v>
+      </c>
+      <c r="D16">
+        <v>-1.190508800000071</v>
+      </c>
+      <c r="E16">
+        <v>5.6608077179128227</v>
+      </c>
+      <c r="F16">
+        <v>0.89309829692240195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-7.6385539869101899</v>
+      </c>
+      <c r="D17">
+        <v>-1.1060799999998672</v>
+      </c>
+      <c r="E17">
+        <v>5.4263939869104556</v>
+      </c>
+      <c r="F17">
+        <v>0.89816930413894991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>-6.7668877179126898</v>
+      </c>
+      <c r="D18">
+        <v>8.4428800000203807E-2</v>
+      </c>
+      <c r="E18">
+        <v>6.9357453179130975</v>
+      </c>
+      <c r="F18">
+        <v>0.99942667474407632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>60653274372.999023</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>30326637186.499512</v>
+      </c>
+      <c r="E22">
+        <v>0.37067685870476091</v>
+      </c>
+      <c r="F22">
+        <v>0.69684257921710779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>1145399046745.3479</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>81814217624.667709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>1206052321118.3469</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>-354695.99132987711</v>
+      </c>
+      <c r="D28">
+        <v>98619.315648007905</v>
+      </c>
+      <c r="E28">
+        <v>551934.62262589298</v>
+      </c>
+      <c r="F28">
+        <v>0.83830873872285605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-293633.69959876401</v>
+      </c>
+      <c r="D29">
+        <v>138585.48673703079</v>
+      </c>
+      <c r="E29">
+        <v>570804.67307282565</v>
+      </c>
+      <c r="F29">
+        <v>0.68570912649639948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-413349.13588886213</v>
+      </c>
+      <c r="D30">
+        <v>39966.171089022886</v>
+      </c>
+      <c r="E30">
+        <v>493281.4780669079</v>
+      </c>
+      <c r="F30">
+        <v>0.97113402588729958</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB529ECE-AC12-453D-9AB8-07F9977E3C27}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>16.322655999999977</v>
+      </c>
+      <c r="C2">
+        <v>2.9424169821891368</v>
+      </c>
+      <c r="D2">
+        <v>0.11292742391942075</v>
+      </c>
+      <c r="E2">
+        <v>844118.23774678353</v>
+      </c>
+      <c r="F2">
+        <v>311823.52561919269</v>
+      </c>
+      <c r="G2">
+        <v>0.62941903200189997</v>
+      </c>
+      <c r="H2">
+        <v>5.9851476119521241E-4</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>24.210615272727161</v>
+      </c>
+      <c r="C3">
+        <v>2.1978322784662985</v>
+      </c>
+      <c r="D3">
+        <v>0.68151126162547326</v>
+      </c>
+      <c r="E3">
+        <v>614594.99816723028</v>
+      </c>
+      <c r="F3">
+        <v>114268.04806196768</v>
+      </c>
+      <c r="G3">
+        <v>0.94300693872309993</v>
+      </c>
+      <c r="H3">
+        <v>1.3633199041906963E-6</v>
+      </c>
+      <c r="J3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>17.428735999999844</v>
+      </c>
+      <c r="C4">
+        <v>6.3177128811004168</v>
+      </c>
+      <c r="D4">
+        <v>0.91258569453599991</v>
+      </c>
+      <c r="E4">
+        <v>705532.75100975286</v>
+      </c>
+      <c r="F4">
+        <v>340482.55894694891</v>
+      </c>
+      <c r="G4">
+        <v>4.6715959249958349E-3</v>
+      </c>
+      <c r="H4">
+        <v>2.9476094044156298E-4</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.9960581896422797E-4</v>
+      </c>
+      <c r="E6">
+        <v>9.4343769126980045E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>312.4414292183377</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>156.22071460916885</v>
+      </c>
+      <c r="E10">
+        <v>10.730873159656964</v>
+      </c>
+      <c r="F10">
+        <v>6.8206231625840064E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>291.16123596816942</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>14.55806179840847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>603.60266518650712</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-12.787120244842622</v>
+      </c>
+      <c r="D16">
+        <v>-7.8879592727271834</v>
+      </c>
+      <c r="E16">
+        <v>-2.9887983006117436</v>
+      </c>
+      <c r="F16">
+        <v>1.6424381857774728E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-6.6793308259667024</v>
+      </c>
+      <c r="D17">
+        <v>-1.1060799999998672</v>
+      </c>
+      <c r="E17">
+        <v>4.467170825966968</v>
+      </c>
+      <c r="F17">
+        <v>0.8711338244575062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1.8827183006118764</v>
+      </c>
+      <c r="D18">
+        <v>6.7818792727273163</v>
+      </c>
+      <c r="E18">
+        <v>11.681040244842755</v>
+      </c>
+      <c r="F18">
+        <v>6.0724041639809156E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>204963166746.62253</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>102481583373.31126</v>
+      </c>
+      <c r="E22">
+        <v>1.7131898173710305</v>
+      </c>
+      <c r="F22">
+        <v>0.20570658161944277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>1196383288462.1509</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>59819164423.107544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>1401346455208.7734</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>-84520.471786383248</v>
+      </c>
+      <c r="D28">
+        <v>229523.23957955325</v>
+      </c>
+      <c r="E28">
+        <v>543566.95094548981</v>
+      </c>
+      <c r="F28">
+        <v>0.17964274843648553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-218668.41525185341</v>
+      </c>
+      <c r="D29">
+        <v>138585.48673703079</v>
+      </c>
+      <c r="E29">
+        <v>495839.38872591499</v>
+      </c>
+      <c r="F29">
+        <v>0.59668725163425873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-404981.46420845896</v>
+      </c>
+      <c r="D30">
+        <v>-90937.752842522459</v>
+      </c>
+      <c r="E30">
+        <v>223105.95852341404</v>
+      </c>
+      <c r="F30">
+        <v>0.747316161835341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93BC2BE-6C64-44C5-937F-FBF881E14D17}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" activeCellId="1" sqref="B6 E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>55.99046400000001</v>
+      </c>
+      <c r="C2">
+        <v>4.0087851904415928</v>
+      </c>
+      <c r="D2">
+        <v>0.70661875701295707</v>
+      </c>
+      <c r="E2">
+        <v>211094.38375324267</v>
+      </c>
+      <c r="F2">
+        <v>15296.405347274058</v>
+      </c>
+      <c r="G2">
+        <v>0.16456398818029461</v>
+      </c>
+      <c r="H2">
+        <v>5.2607666906134831E-4</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>43.366353777777746</v>
+      </c>
+      <c r="C3">
+        <v>11.17477875969365</v>
+      </c>
+      <c r="D3">
+        <v>3.9164625883393443E-2</v>
+      </c>
+      <c r="E3">
+        <v>406845.17107080476</v>
+      </c>
+      <c r="F3">
+        <v>206995.46087211909</v>
+      </c>
+      <c r="G3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3">
+        <v>2.6142509557125493E-7</v>
+      </c>
+      <c r="J3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>26.96594742857139</v>
+      </c>
+      <c r="C4">
+        <v>2.9771810728435053</v>
+      </c>
+      <c r="D4">
+        <v>0.73488307501817984</v>
+      </c>
+      <c r="E4">
+        <v>181987.42873845823</v>
+      </c>
+      <c r="F4">
+        <v>65445.206155783984</v>
+      </c>
+      <c r="G4">
+        <v>0.87007176285280741</v>
+      </c>
+      <c r="H4">
+        <v>5.7325503554020774E-2</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3.6314886002930214E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.9253962090327181E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2981.3474793144283</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1490.6737396572141</v>
+      </c>
+      <c r="E10">
+        <v>16.678270436737428</v>
+      </c>
+      <c r="F10">
+        <v>6.318970818681675E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>3396.3714835922187</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>89.378196936637337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>6377.718962906647</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2.8448674208877271</v>
+      </c>
+      <c r="D16">
+        <v>12.624110222222257</v>
+      </c>
+      <c r="E16">
+        <v>22.403353023556786</v>
+      </c>
+      <c r="F16">
+        <v>8.7568101423560751E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>16.700205533003889</v>
+      </c>
+      <c r="D17">
+        <v>29.024516571428613</v>
+      </c>
+      <c r="E17">
+        <v>41.348827609853338</v>
+      </c>
+      <c r="F17">
+        <v>3.7790926029623861E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>6.6211635478718271</v>
+      </c>
+      <c r="D18">
+        <v>16.400406349206357</v>
+      </c>
+      <c r="E18">
+        <v>26.179649150540886</v>
+      </c>
+      <c r="F18">
+        <v>6.1985416387255743E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>410724765997.21387</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>205362382998.60693</v>
+      </c>
+      <c r="E22">
+        <v>6.8386492734117938</v>
+      </c>
+      <c r="F22">
+        <v>2.9053073674119032E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>1141127471515.1128</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>30029670303.029285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>1551852237512.3267</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>-375003.0789080027</v>
+      </c>
+      <c r="D28">
+        <v>-195750.78731756203</v>
+      </c>
+      <c r="E28">
+        <v>-16498.495727121335</v>
+      </c>
+      <c r="F28">
+        <v>2.9686488419823021E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-196796.11752264359</v>
+      </c>
+      <c r="D29">
+        <v>29106.955014784471</v>
+      </c>
+      <c r="E29">
+        <v>255010.02755221253</v>
+      </c>
+      <c r="F29">
+        <v>0.94709986207024877</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>45605.450741905806</v>
+      </c>
+      <c r="D30">
+        <v>224857.7423323465</v>
+      </c>
+      <c r="E30">
+        <v>404110.03392278717</v>
+      </c>
+      <c r="F30">
+        <v>1.1051419834227083E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\GitHub\ChangValiante2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6776F0-0232-4E88-92C3-35760E708835}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDC07B-A38C-474F-B5B9-255D5832C734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28995" yWindow="1560" windowWidth="22485" windowHeight="14865" firstSheet="2" activeTab="9" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
+    <workbookView xWindow="-37283" yWindow="236" windowWidth="18851" windowHeight="11022" firstSheet="6" activeTab="11" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="19816010" sheetId="8" r:id="rId8"/>
     <sheet name="19817000" sheetId="9" r:id="rId9"/>
     <sheet name="19817001" sheetId="10" r:id="rId10"/>
+    <sheet name="19817002(old)" sheetId="11" r:id="rId11"/>
+    <sheet name="19817002" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="37">
   <si>
     <t>Treatment Group</t>
   </si>
@@ -506,7 +508,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -516,13 +518,887 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F872D6E-0AC9-469B-AE4C-1F50B3D6C364}">
   <dimension ref="A1:J30"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>36.095155200000022</v>
+      </c>
+      <c r="C2">
+        <v>0.90951380716690633</v>
+      </c>
+      <c r="D2">
+        <v>0.26105148444427539</v>
+      </c>
+      <c r="E2">
+        <v>181052.07422819408</v>
+      </c>
+      <c r="F2">
+        <v>41014.883945391768</v>
+      </c>
+      <c r="G2">
+        <v>0.95693926314988609</v>
+      </c>
+      <c r="H2">
+        <v>8.2558682289290974E-4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>38.027634461538518</v>
+      </c>
+      <c r="C3">
+        <v>3.119816968300086</v>
+      </c>
+      <c r="D3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E3">
+        <v>92098.495559872972</v>
+      </c>
+      <c r="F3">
+        <v>22477.376876326474</v>
+      </c>
+      <c r="G3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H3">
+        <v>2.7755575615628914E-13</v>
+      </c>
+      <c r="J3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>32.039660307692571</v>
+      </c>
+      <c r="C4">
+        <v>4.3875425266050785</v>
+      </c>
+      <c r="D4">
+        <v>0.73120390136164382</v>
+      </c>
+      <c r="E4">
+        <v>130434.31164219043</v>
+      </c>
+      <c r="F4">
+        <v>35415.842762766952</v>
+      </c>
+      <c r="G4">
+        <v>0.66424390416212875</v>
+      </c>
+      <c r="H4">
+        <v>1.4724647751429565E-5</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.7639083842091202E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.7056185695896587E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>310.76844240464715</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>155.38422120232357</v>
+      </c>
+      <c r="E10">
+        <v>13.33779458841196</v>
+      </c>
+      <c r="F10">
+        <v>3.4531236698313807E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>477.64666242725428</v>
+      </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>11.649918595786691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>788.41510483190143</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-5.9854353052606095</v>
+      </c>
+      <c r="D16">
+        <v>-1.9324792615384965</v>
+      </c>
+      <c r="E16">
+        <v>2.1204767821836166</v>
+      </c>
+      <c r="F16">
+        <v>0.48382361491177506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-0.31209947369626523</v>
+      </c>
+      <c r="D17">
+        <v>4.0554948923074505</v>
+      </c>
+      <c r="E17">
+        <v>8.4230892583111654</v>
+      </c>
+      <c r="F17">
+        <v>7.3465364520585719E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3.1687041134256577</v>
+      </c>
+      <c r="D18">
+        <v>5.987974153845947</v>
+      </c>
+      <c r="E18">
+        <v>8.8072441942662358</v>
+      </c>
+      <c r="F18">
+        <v>1.9388613094029061E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>38453020771.219986</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>19226510385.609993</v>
+      </c>
+      <c r="E22">
+        <v>22.907940704863922</v>
+      </c>
+      <c r="F22">
+        <v>2.0930803310752993E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>34411077624.39061</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>839294576.20464897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>72864098395.610596</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>54552.848830839641</v>
+      </c>
+      <c r="D28">
+        <v>88953.578668321119</v>
+      </c>
+      <c r="E28">
+        <v>123354.30850580259</v>
+      </c>
+      <c r="F28">
+        <v>5.0122449746226039E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>13546.441751589562</v>
+      </c>
+      <c r="D29">
+        <v>50617.76258600365</v>
+      </c>
+      <c r="E29">
+        <v>87689.083420417737</v>
+      </c>
+      <c r="F29">
+        <v>5.2760635242423692E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-62265.250784583768</v>
+      </c>
+      <c r="D30">
+        <v>-38335.816082317469</v>
+      </c>
+      <c r="E30">
+        <v>-14406.381380051174</v>
+      </c>
+      <c r="F30">
+        <v>1.0129345447292826E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6EB43A-1BF4-4DF2-B5EC-17231534B4DD}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45.931364571428603</v>
+      </c>
+      <c r="C2">
+        <v>11.393233623459961</v>
+      </c>
+      <c r="D2">
+        <v>0.15906339358526672</v>
+      </c>
+      <c r="E2">
+        <v>362628.84813990491</v>
+      </c>
+      <c r="F2">
+        <v>37315.575767631402</v>
+      </c>
+      <c r="G2">
+        <v>0.56213778344724108</v>
+      </c>
+      <c r="H2">
+        <v>9.7644573664201761E-4</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>135.99309120000015</v>
+      </c>
+      <c r="C3">
+        <v>39.360303631948888</v>
+      </c>
+      <c r="D3">
+        <v>0.13139546305003358</v>
+      </c>
+      <c r="E3">
+        <v>148073.254079615</v>
+      </c>
+      <c r="F3">
+        <v>55852.733019895561</v>
+      </c>
+      <c r="G3">
+        <v>0.64904337707197546</v>
+      </c>
+      <c r="H3">
+        <v>5.9000619379140917E-2</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>47.818704000000253</v>
+      </c>
+      <c r="C4">
+        <v>22.379612404076092</v>
+      </c>
+      <c r="D4">
+        <v>0.23305503441918657</v>
+      </c>
+      <c r="E4">
+        <v>207660.25896940788</v>
+      </c>
+      <c r="F4">
+        <v>73713.103037229812</v>
+      </c>
+      <c r="G4">
+        <v>0.1275377970354383</v>
+      </c>
+      <c r="H4">
+        <v>2.3140586248049377E-4</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.2134661218233541E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.2134661218233541E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>49833.319316674992</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>24916.659658337496</v>
+      </c>
+      <c r="E10">
+        <v>31.09794731576762</v>
+      </c>
+      <c r="F10">
+        <v>2.1711804584643055E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>19229.559614595382</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>801.23165060814097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>69062.878931270374</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-124.89730267867147</v>
+      </c>
+      <c r="D16">
+        <v>-90.061726628571535</v>
+      </c>
+      <c r="E16">
+        <v>-55.226150578471604</v>
+      </c>
+      <c r="F16">
+        <v>3.2746748847012341E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-36.722915478671574</v>
+      </c>
+      <c r="D17">
+        <v>-1.8873394285716429</v>
+      </c>
+      <c r="E17">
+        <v>32.948236621528288</v>
+      </c>
+      <c r="F17">
+        <v>0.98996280546292381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>56.561617049136771</v>
+      </c>
+      <c r="D18">
+        <v>88.174387199999899</v>
+      </c>
+      <c r="E18">
+        <v>119.78715735086303</v>
+      </c>
+      <c r="F18">
+        <v>9.7920110719851294E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>194759880563.61829</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>97379940281.809143</v>
+      </c>
+      <c r="E22">
+        <v>27.388196806442743</v>
+      </c>
+      <c r="F22">
+        <v>6.3941344160138854E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>85333057275.740051</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>3555544053.1558356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>280092937839.35834</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>141172.33759365499</v>
+      </c>
+      <c r="D28">
+        <v>214555.59406028991</v>
+      </c>
+      <c r="E28">
+        <v>287938.85052692483</v>
+      </c>
+      <c r="F28">
+        <v>4.4937214560558658E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>81585.332703862092</v>
+      </c>
+      <c r="D29">
+        <v>154968.58917049703</v>
+      </c>
+      <c r="E29">
+        <v>228351.84563713195</v>
+      </c>
+      <c r="F29">
+        <v>6.0003862744295589E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-126181.22501307157</v>
+      </c>
+      <c r="D30">
+        <v>-59587.004889792879</v>
+      </c>
+      <c r="E30">
+        <v>7007.215233485811</v>
+      </c>
+      <c r="F30">
+        <v>8.5545202531357556E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B66EAA-37F9-4C3F-AA7D-ECC0B4831FBA}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,110 +1430,110 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>36.095155200000022</v>
+        <v>45.931364571428603</v>
       </c>
       <c r="C2">
-        <v>0.90951380716690633</v>
+        <v>11.393233623459961</v>
       </c>
       <c r="D2">
-        <v>0.26105148444427539</v>
+        <v>0.15906339358526672</v>
       </c>
       <c r="E2">
-        <v>181052.07422819408</v>
+        <v>362628.84813990491</v>
       </c>
       <c r="F2">
-        <v>41014.883945391768</v>
+        <v>37315.575767631402</v>
       </c>
       <c r="G2">
-        <v>0.95693926314988609</v>
+        <v>0.56213778344724108</v>
       </c>
       <c r="H2">
-        <v>8.2558682289290974E-4</v>
+        <v>9.7644573664201761E-4</v>
       </c>
       <c r="J2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>38.027634461538518</v>
+        <v>135.99309120000015</v>
       </c>
       <c r="C3">
-        <v>3.119816968300086</v>
+        <v>39.360303631948888</v>
       </c>
       <c r="D3">
-        <v>5.0000000000000001E-4</v>
+        <v>0.13139546305003358</v>
       </c>
       <c r="E3">
-        <v>92098.495559872972</v>
+        <v>148073.254079615</v>
       </c>
       <c r="F3">
-        <v>22477.376876326474</v>
+        <v>55852.733019895561</v>
       </c>
       <c r="G3">
-        <v>5.0000000000000001E-4</v>
+        <v>0.64904337707197546</v>
       </c>
       <c r="H3">
-        <v>2.7755575615628914E-13</v>
+        <v>5.9000619379140917E-2</v>
       </c>
       <c r="J3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>32.039660307692571</v>
+        <v>47.818704000000253</v>
       </c>
       <c r="C4">
-        <v>4.3875425266050785</v>
+        <v>22.379612404076092</v>
       </c>
       <c r="D4">
-        <v>0.73120390136164382</v>
+        <v>0.23305503441918657</v>
       </c>
       <c r="E4">
-        <v>130434.31164219043</v>
+        <v>207660.25896940788</v>
       </c>
       <c r="F4">
-        <v>35415.842762766952</v>
+        <v>73713.103037229812</v>
       </c>
       <c r="G4">
-        <v>0.66424390416212875</v>
+        <v>0.1275377970354383</v>
       </c>
       <c r="H4">
-        <v>1.4724647751429565E-5</v>
+        <v>7.3583793244702544E-4</v>
       </c>
       <c r="J4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.7639083842091202E-2</v>
+        <v>1.2134661218233541E-4</v>
       </c>
       <c r="E6">
-        <v>1.7056185695896587E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1.2134661218233541E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -677,57 +1553,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>310.76844240464715</v>
+        <v>49833.319316674992</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>155.38422120232357</v>
+        <v>24916.659658337496</v>
       </c>
       <c r="E10">
-        <v>13.33779458841196</v>
+        <v>31.09794731576762</v>
       </c>
       <c r="F10">
-        <v>3.4531236698313807E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2.1711804584643055E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>477.64666242725428</v>
+        <v>19229.559614595382</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>11.649918595786691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>801.23165060814097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>788.41510483190143</v>
+        <v>69062.878931270374</v>
       </c>
       <c r="C12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -738,7 +1614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -746,19 +1622,19 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>-5.9854353052606095</v>
+        <v>-124.89730267867147</v>
       </c>
       <c r="D16">
-        <v>-1.9324792615384965</v>
+        <v>-90.061726628571535</v>
       </c>
       <c r="E16">
-        <v>2.1204767821836166</v>
+        <v>-55.226150578471604</v>
       </c>
       <c r="F16">
-        <v>0.48382361491177506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.2746748847012341E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -766,19 +1642,19 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>-0.31209947369626523</v>
+        <v>-36.722915478671574</v>
       </c>
       <c r="D17">
-        <v>4.0554948923074505</v>
+        <v>-1.8873394285716429</v>
       </c>
       <c r="E17">
-        <v>8.4230892583111654</v>
+        <v>32.948236621528288</v>
       </c>
       <c r="F17">
-        <v>7.3465364520585719E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.98996280546292381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -786,24 +1662,24 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>3.1687041134256577</v>
+        <v>56.561617049136771</v>
       </c>
       <c r="D18">
-        <v>5.987974153845947</v>
+        <v>88.174387199999899</v>
       </c>
       <c r="E18">
-        <v>8.8072441942662358</v>
+        <v>119.78715735086303</v>
       </c>
       <c r="F18">
-        <v>1.9388613094029061E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7920110719851294E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -823,57 +1699,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22">
-        <v>38453020771.219986</v>
+        <v>194759880563.61829</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>19226510385.609993</v>
+        <v>97379940281.809143</v>
       </c>
       <c r="E22">
-        <v>22.907940704863922</v>
+        <v>27.388196806442743</v>
       </c>
       <c r="F22">
-        <v>2.0930803310752993E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3941344160138854E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23">
-        <v>34411077624.39061</v>
+        <v>85333057275.740051</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>839294576.20464897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3555544053.1558356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24">
-        <v>72864098395.610596</v>
+        <v>280092937839.35834</v>
       </c>
       <c r="C24">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -884,7 +1760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -892,19 +1768,19 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>54552.848830839641</v>
+        <v>141172.33759365499</v>
       </c>
       <c r="D28">
-        <v>88953.578668321119</v>
+        <v>214555.59406028991</v>
       </c>
       <c r="E28">
-        <v>123354.30850580259</v>
+        <v>287938.85052692483</v>
       </c>
       <c r="F28">
-        <v>5.0122449746226039E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.4937214560558658E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -912,19 +1788,19 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>13546.441751589562</v>
+        <v>81585.332703862092</v>
       </c>
       <c r="D29">
-        <v>50617.76258600365</v>
+        <v>154968.58917049703</v>
       </c>
       <c r="E29">
-        <v>87689.083420417737</v>
+        <v>228351.84563713195</v>
       </c>
       <c r="F29">
-        <v>5.2760635242423692E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.0003862744295589E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -932,16 +1808,16 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>-62265.250784583768</v>
+        <v>-126181.22501307157</v>
       </c>
       <c r="D30">
-        <v>-38335.816082317469</v>
+        <v>-59587.004889792879</v>
       </c>
       <c r="E30">
-        <v>-14406.381380051174</v>
+        <v>7007.215233485811</v>
       </c>
       <c r="F30">
-        <v>1.0129345447292826E-3</v>
+        <v>8.5545202531357556E-2</v>
       </c>
     </row>
   </sheetData>
@@ -957,9 +1833,9 @@
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -988,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1014,7 +1890,7 @@
         <v>1.5135674130029031E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1040,7 +1916,7 @@
         <v>0.67864172233188191</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1066,7 +1942,7 @@
         <v>7.1108833465172161E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1077,12 +1953,12 @@
         <v>5.5889117092916095E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1128,7 +2004,7 @@
         <v>7.4960366535507371E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +2018,7 @@
         <v>391.30040080266321</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1153,12 +2029,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1196,7 +2072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1216,7 +2092,7 @@
         <v>9.5844077119267013E-10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1236,7 +2112,7 @@
         <v>0.93464253367965688</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1256,12 +2132,12 @@
         <v>1.0031138142352347E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1281,7 +2157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1301,7 +2177,7 @@
         <v>2.2238674409042316E-18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +2191,7 @@
         <v>7212433199.7889585</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1326,12 +2202,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1369,7 +2245,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1389,7 +2265,7 @@
         <v>9.5720897874684852E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1409,7 +2285,7 @@
         <v>3.9926590541327522E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1442,9 +2318,9 @@
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +2349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1499,7 +2375,7 @@
         <v>7.7812617320227595E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1525,7 +2401,7 @@
         <v>0.26200439582709589</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1551,7 +2427,7 @@
         <v>2.1441635404497839E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1562,12 +2438,12 @@
         <v>4.488653224853145E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +2463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1607,7 +2483,7 @@
         <v>9.4706643758040457E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +2497,7 @@
         <v>577.44144898160209</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1632,12 +2508,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1648,7 +2524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1668,7 +2544,7 @@
         <v>2.4221191377715723E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1688,7 +2564,7 @@
         <v>0.99729600581631395</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1708,12 +2584,12 @@
         <v>4.2485864188834821E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1733,7 +2609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1753,7 +2629,7 @@
         <v>7.4753275267876609E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1767,7 +2643,7 @@
         <v>3996559330.68922</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1778,12 +2654,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1794,7 +2670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1814,7 +2690,7 @@
         <v>6.2477603421928762E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1834,7 +2710,7 @@
         <v>0.64965090944622661</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1867,9 +2743,9 @@
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1898,7 +2774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1924,7 +2800,7 @@
         <v>2.0946880363637232E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1950,7 +2826,7 @@
         <v>0.27692246001814746</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1976,7 +2852,7 @@
         <v>6.3660959619171731E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1987,12 +2863,12 @@
         <v>3.1275875691518369E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +2888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2908,7 @@
         <v>1.2607918419048826E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2046,7 +2922,7 @@
         <v>3487.0657926544691</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2057,12 +2933,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2073,7 +2949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2093,7 +2969,7 @@
         <v>1.2511392735170546E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2113,7 +2989,7 @@
         <v>0.92100532072407748</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2133,12 +3009,12 @@
         <v>3.2071185596116436E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +3034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2178,7 +3054,7 @@
         <v>4.2892564449291427E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +3068,7 @@
         <v>937191482.0526737</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2203,12 +3079,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2219,7 +3095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2239,7 +3115,7 @@
         <v>2.4852923588225551E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2259,7 +3135,7 @@
         <v>9.7827684718185814E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2292,9 +3168,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +3199,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2349,7 +3225,7 @@
         <v>3.14103305564295E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2375,12 +3251,12 @@
         <v>0.1451511290919214</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2404,9 +3280,9 @@
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +3311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2461,7 +3337,7 @@
         <v>5.9584559508607526E-12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2487,7 +3363,7 @@
         <v>1.387799714036575E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2513,7 +3389,7 @@
         <v>2.6602278229392873E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2524,12 +3400,12 @@
         <v>7.777951721289083E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2549,7 +3425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2569,7 +3445,7 @@
         <v>2.2896725538338117E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2583,7 +3459,7 @@
         <v>70.010367984217083</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2594,12 +3470,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2610,7 +3486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2630,7 +3506,7 @@
         <v>3.1547808630888463E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2650,7 +3526,7 @@
         <v>0.97339322649890259</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2670,12 +3546,12 @@
         <v>0.16001966250977551</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +3571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +3591,7 @@
         <v>9.4484260903996685E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2729,7 +3605,7 @@
         <v>122800861301.63234</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2740,12 +3616,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2756,7 +3632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2776,7 +3652,7 @@
         <v>4.7153765769802902E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2796,7 +3672,7 @@
         <v>0.14578965795733334</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2829,9 +3705,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2860,7 +3736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2886,7 +3762,7 @@
         <v>5.9851476119521241E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2912,7 +3788,7 @@
         <v>2.6243395344848208E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2938,7 +3814,7 @@
         <v>2.9476094044156298E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2949,12 +3825,12 @@
         <v>0.84705434199782681</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2974,7 +3850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2994,7 +3870,7 @@
         <v>0.87349609361592861</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3008,7 +3884,7 @@
         <v>18.688570223263582</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3019,12 +3895,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3035,7 +3911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3055,7 +3931,7 @@
         <v>0.89309829692240195</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3075,7 +3951,7 @@
         <v>0.89816930413894991</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3095,12 +3971,12 @@
         <v>0.99942667474407632</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3120,7 +3996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3140,7 +4016,7 @@
         <v>0.69684257921710779</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3154,7 +4030,7 @@
         <v>81814217624.667709</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3165,12 +4041,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3181,7 +4057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3201,7 +4077,7 @@
         <v>0.83830873872285605</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3221,7 +4097,7 @@
         <v>0.68570912649639948</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3254,12 +4130,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3291,7 +4167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3320,7 +4196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3349,7 +4225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3378,7 +4254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3389,12 +4265,12 @@
         <v>9.4343769126980045E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3414,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3434,7 +4310,7 @@
         <v>6.8206231625840064E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3448,7 +4324,7 @@
         <v>14.55806179840847</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3459,12 +4335,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3475,7 +4351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3495,7 +4371,7 @@
         <v>1.6424381857774728E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3515,7 +4391,7 @@
         <v>0.8711338244575062</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3535,12 +4411,12 @@
         <v>6.0724041639809156E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3560,7 +4436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3580,7 +4456,7 @@
         <v>0.20570658161944277</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3594,7 +4470,7 @@
         <v>59819164423.107544</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3605,12 +4481,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3621,7 +4497,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3641,7 +4517,7 @@
         <v>0.17964274843648553</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3661,7 +4537,7 @@
         <v>0.59668725163425873</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3694,9 +4570,9 @@
       <selection activeCell="E6" activeCellId="1" sqref="B6 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3728,7 +4604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -3757,7 +4633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3786,7 +4662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3815,7 +4691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3826,12 +4702,12 @@
         <v>1.9253962090327181E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3851,7 +4727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3871,7 +4747,7 @@
         <v>6.318970818681675E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +4761,7 @@
         <v>89.378196936637337</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3896,12 +4772,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3912,7 +4788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3932,7 +4808,7 @@
         <v>8.7568101423560751E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3952,7 +4828,7 @@
         <v>3.7790926029623861E-6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3972,12 +4848,12 @@
         <v>6.1985416387255743E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3997,7 +4873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -4017,7 +4893,7 @@
         <v>2.9053073674119032E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -4031,7 +4907,7 @@
         <v>30029670303.029285</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -4042,12 +4918,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4058,7 +4934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4078,7 +4954,7 @@
         <v>2.9686488419823021E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4098,7 +4974,7 @@
         <v>0.94709986207024877</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>

--- a/result.xlsx
+++ b/result.xlsx
@@ -5,26 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\ChangValiante2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive - University of Toronto\3) Manuscript III (Nature)\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEDC07B-A38C-474F-B5B9-255D5832C734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{9FA404E5-E8F2-4F39-8C6B-A209A211EE7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{087CDE17-B9D3-43E4-A3F3-16094A48A946}"/>
   <bookViews>
-    <workbookView xWindow="-37283" yWindow="236" windowWidth="18851" windowHeight="11022" firstSheet="6" activeTab="11" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
+    <workbookView xWindow="8820" yWindow="6630" windowWidth="22485" windowHeight="10485" firstSheet="3" activeTab="3" xr2:uid="{410D128C-0FDD-4EBC-9D23-8C20F9B68998}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="19815002" sheetId="3" r:id="rId2"/>
-    <sheet name="19815003" sheetId="2" r:id="rId3"/>
-    <sheet name="19815005" sheetId="4" r:id="rId4"/>
-    <sheet name="19816008" sheetId="5" r:id="rId5"/>
-    <sheet name="19816009" sheetId="6" r:id="rId6"/>
-    <sheet name="19816010(Controls)" sheetId="7" r:id="rId7"/>
-    <sheet name="19816010" sheetId="8" r:id="rId8"/>
-    <sheet name="19817000" sheetId="9" r:id="rId9"/>
-    <sheet name="19817001" sheetId="10" r:id="rId10"/>
-    <sheet name="19817002(old)" sheetId="11" r:id="rId11"/>
-    <sheet name="19817002" sheetId="12" r:id="rId12"/>
+    <sheet name="19815002" sheetId="3" r:id="rId1"/>
+    <sheet name="19815003" sheetId="2" r:id="rId2"/>
+    <sheet name="19815005" sheetId="4" r:id="rId3"/>
+    <sheet name="19817002" sheetId="12" r:id="rId4"/>
+    <sheet name="19805000(original)" sheetId="16" r:id="rId5"/>
+    <sheet name="19805000" sheetId="17" r:id="rId6"/>
+    <sheet name="19805003" sheetId="18" r:id="rId7"/>
+    <sheet name="19805005" sheetId="19" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="33">
   <si>
     <t>Treatment Group</t>
   </si>
@@ -141,18 +137,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Washout</t>
-  </si>
-  <si>
-    <t>EZA [20 uM]</t>
-  </si>
-  <si>
-    <t>ACTZ [30uM]</t>
   </si>
 </sst>
 </file>
@@ -503,1329 +487,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD1F659-7B47-45FC-B558-2AFCCFD249CB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F872D6E-0AC9-469B-AE4C-1F50B3D6C364}">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>36.095155200000022</v>
-      </c>
-      <c r="C2">
-        <v>0.90951380716690633</v>
-      </c>
-      <c r="D2">
-        <v>0.26105148444427539</v>
-      </c>
-      <c r="E2">
-        <v>181052.07422819408</v>
-      </c>
-      <c r="F2">
-        <v>41014.883945391768</v>
-      </c>
-      <c r="G2">
-        <v>0.95693926314988609</v>
-      </c>
-      <c r="H2">
-        <v>8.2558682289290974E-4</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>38.027634461538518</v>
-      </c>
-      <c r="C3">
-        <v>3.119816968300086</v>
-      </c>
-      <c r="D3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E3">
-        <v>92098.495559872972</v>
-      </c>
-      <c r="F3">
-        <v>22477.376876326474</v>
-      </c>
-      <c r="G3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H3">
-        <v>2.7755575615628914E-13</v>
-      </c>
-      <c r="J3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>32.039660307692571</v>
-      </c>
-      <c r="C4">
-        <v>4.3875425266050785</v>
-      </c>
-      <c r="D4">
-        <v>0.73120390136164382</v>
-      </c>
-      <c r="E4">
-        <v>130434.31164219043</v>
-      </c>
-      <c r="F4">
-        <v>35415.842762766952</v>
-      </c>
-      <c r="G4">
-        <v>0.66424390416212875</v>
-      </c>
-      <c r="H4">
-        <v>1.4724647751429565E-5</v>
-      </c>
-      <c r="J4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.7639083842091202E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.7056185695896587E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>310.76844240464715</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>155.38422120232357</v>
-      </c>
-      <c r="E10">
-        <v>13.33779458841196</v>
-      </c>
-      <c r="F10">
-        <v>3.4531236698313807E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>477.64666242725428</v>
-      </c>
-      <c r="C11">
-        <v>41</v>
-      </c>
-      <c r="D11">
-        <v>11.649918595786691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>788.41510483190143</v>
-      </c>
-      <c r="C12">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>-5.9854353052606095</v>
-      </c>
-      <c r="D16">
-        <v>-1.9324792615384965</v>
-      </c>
-      <c r="E16">
-        <v>2.1204767821836166</v>
-      </c>
-      <c r="F16">
-        <v>0.48382361491177506</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>-0.31209947369626523</v>
-      </c>
-      <c r="D17">
-        <v>4.0554948923074505</v>
-      </c>
-      <c r="E17">
-        <v>8.4230892583111654</v>
-      </c>
-      <c r="F17">
-        <v>7.3465364520585719E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>3.1687041134256577</v>
-      </c>
-      <c r="D18">
-        <v>5.987974153845947</v>
-      </c>
-      <c r="E18">
-        <v>8.8072441942662358</v>
-      </c>
-      <c r="F18">
-        <v>1.9388613094029061E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>38453020771.219986</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>19226510385.609993</v>
-      </c>
-      <c r="E22">
-        <v>22.907940704863922</v>
-      </c>
-      <c r="F22">
-        <v>2.0930803310752993E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>34411077624.39061</v>
-      </c>
-      <c r="C23">
-        <v>41</v>
-      </c>
-      <c r="D23">
-        <v>839294576.20464897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>72864098395.610596</v>
-      </c>
-      <c r="C24">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>54552.848830839641</v>
-      </c>
-      <c r="D28">
-        <v>88953.578668321119</v>
-      </c>
-      <c r="E28">
-        <v>123354.30850580259</v>
-      </c>
-      <c r="F28">
-        <v>5.0122449746226039E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>13546.441751589562</v>
-      </c>
-      <c r="D29">
-        <v>50617.76258600365</v>
-      </c>
-      <c r="E29">
-        <v>87689.083420417737</v>
-      </c>
-      <c r="F29">
-        <v>5.2760635242423692E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>-62265.250784583768</v>
-      </c>
-      <c r="D30">
-        <v>-38335.816082317469</v>
-      </c>
-      <c r="E30">
-        <v>-14406.381380051174</v>
-      </c>
-      <c r="F30">
-        <v>1.0129345447292826E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6EB43A-1BF4-4DF2-B5EC-17231534B4DD}">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>45.931364571428603</v>
-      </c>
-      <c r="C2">
-        <v>11.393233623459961</v>
-      </c>
-      <c r="D2">
-        <v>0.15906339358526672</v>
-      </c>
-      <c r="E2">
-        <v>362628.84813990491</v>
-      </c>
-      <c r="F2">
-        <v>37315.575767631402</v>
-      </c>
-      <c r="G2">
-        <v>0.56213778344724108</v>
-      </c>
-      <c r="H2">
-        <v>9.7644573664201761E-4</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>135.99309120000015</v>
-      </c>
-      <c r="C3">
-        <v>39.360303631948888</v>
-      </c>
-      <c r="D3">
-        <v>0.13139546305003358</v>
-      </c>
-      <c r="E3">
-        <v>148073.254079615</v>
-      </c>
-      <c r="F3">
-        <v>55852.733019895561</v>
-      </c>
-      <c r="G3">
-        <v>0.64904337707197546</v>
-      </c>
-      <c r="H3">
-        <v>5.9000619379140917E-2</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>47.818704000000253</v>
-      </c>
-      <c r="C4">
-        <v>22.379612404076092</v>
-      </c>
-      <c r="D4">
-        <v>0.23305503441918657</v>
-      </c>
-      <c r="E4">
-        <v>207660.25896940788</v>
-      </c>
-      <c r="F4">
-        <v>73713.103037229812</v>
-      </c>
-      <c r="G4">
-        <v>0.1275377970354383</v>
-      </c>
-      <c r="H4">
-        <v>2.3140586248049377E-4</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.2134661218233541E-4</v>
-      </c>
-      <c r="E6">
-        <v>1.2134661218233541E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>49833.319316674992</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>24916.659658337496</v>
-      </c>
-      <c r="E10">
-        <v>31.09794731576762</v>
-      </c>
-      <c r="F10">
-        <v>2.1711804584643055E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>19229.559614595382</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>801.23165060814097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>69062.878931270374</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>-124.89730267867147</v>
-      </c>
-      <c r="D16">
-        <v>-90.061726628571535</v>
-      </c>
-      <c r="E16">
-        <v>-55.226150578471604</v>
-      </c>
-      <c r="F16">
-        <v>3.2746748847012341E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>-36.722915478671574</v>
-      </c>
-      <c r="D17">
-        <v>-1.8873394285716429</v>
-      </c>
-      <c r="E17">
-        <v>32.948236621528288</v>
-      </c>
-      <c r="F17">
-        <v>0.98996280546292381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>56.561617049136771</v>
-      </c>
-      <c r="D18">
-        <v>88.174387199999899</v>
-      </c>
-      <c r="E18">
-        <v>119.78715735086303</v>
-      </c>
-      <c r="F18">
-        <v>9.7920110719851294E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>194759880563.61829</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>97379940281.809143</v>
-      </c>
-      <c r="E22">
-        <v>27.388196806442743</v>
-      </c>
-      <c r="F22">
-        <v>6.3941344160138854E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>85333057275.740051</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>3555544053.1558356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>280092937839.35834</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>141172.33759365499</v>
-      </c>
-      <c r="D28">
-        <v>214555.59406028991</v>
-      </c>
-      <c r="E28">
-        <v>287938.85052692483</v>
-      </c>
-      <c r="F28">
-        <v>4.4937214560558658E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>81585.332703862092</v>
-      </c>
-      <c r="D29">
-        <v>154968.58917049703</v>
-      </c>
-      <c r="E29">
-        <v>228351.84563713195</v>
-      </c>
-      <c r="F29">
-        <v>6.0003862744295589E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>-126181.22501307157</v>
-      </c>
-      <c r="D30">
-        <v>-59587.004889792879</v>
-      </c>
-      <c r="E30">
-        <v>7007.215233485811</v>
-      </c>
-      <c r="F30">
-        <v>8.5545202531357556E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B66EAA-37F9-4C3F-AA7D-ECC0B4831FBA}">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>45.931364571428603</v>
-      </c>
-      <c r="C2">
-        <v>11.393233623459961</v>
-      </c>
-      <c r="D2">
-        <v>0.15906339358526672</v>
-      </c>
-      <c r="E2">
-        <v>362628.84813990491</v>
-      </c>
-      <c r="F2">
-        <v>37315.575767631402</v>
-      </c>
-      <c r="G2">
-        <v>0.56213778344724108</v>
-      </c>
-      <c r="H2">
-        <v>9.7644573664201761E-4</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>135.99309120000015</v>
-      </c>
-      <c r="C3">
-        <v>39.360303631948888</v>
-      </c>
-      <c r="D3">
-        <v>0.13139546305003358</v>
-      </c>
-      <c r="E3">
-        <v>148073.254079615</v>
-      </c>
-      <c r="F3">
-        <v>55852.733019895561</v>
-      </c>
-      <c r="G3">
-        <v>0.64904337707197546</v>
-      </c>
-      <c r="H3">
-        <v>5.9000619379140917E-2</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>47.818704000000253</v>
-      </c>
-      <c r="C4">
-        <v>22.379612404076092</v>
-      </c>
-      <c r="D4">
-        <v>0.23305503441918657</v>
-      </c>
-      <c r="E4">
-        <v>207660.25896940788</v>
-      </c>
-      <c r="F4">
-        <v>73713.103037229812</v>
-      </c>
-      <c r="G4">
-        <v>0.1275377970354383</v>
-      </c>
-      <c r="H4">
-        <v>7.3583793244702544E-4</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1.2134661218233541E-4</v>
-      </c>
-      <c r="E6">
-        <v>1.2134661218233541E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>49833.319316674992</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>24916.659658337496</v>
-      </c>
-      <c r="E10">
-        <v>31.09794731576762</v>
-      </c>
-      <c r="F10">
-        <v>2.1711804584643055E-7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>19229.559614595382</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>801.23165060814097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>69062.878931270374</v>
-      </c>
-      <c r="C12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>-124.89730267867147</v>
-      </c>
-      <c r="D16">
-        <v>-90.061726628571535</v>
-      </c>
-      <c r="E16">
-        <v>-55.226150578471604</v>
-      </c>
-      <c r="F16">
-        <v>3.2746748847012341E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>-36.722915478671574</v>
-      </c>
-      <c r="D17">
-        <v>-1.8873394285716429</v>
-      </c>
-      <c r="E17">
-        <v>32.948236621528288</v>
-      </c>
-      <c r="F17">
-        <v>0.98996280546292381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>56.561617049136771</v>
-      </c>
-      <c r="D18">
-        <v>88.174387199999899</v>
-      </c>
-      <c r="E18">
-        <v>119.78715735086303</v>
-      </c>
-      <c r="F18">
-        <v>9.7920110719851294E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>194759880563.61829</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>97379940281.809143</v>
-      </c>
-      <c r="E22">
-        <v>27.388196806442743</v>
-      </c>
-      <c r="F22">
-        <v>6.3941344160138854E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>85333057275.740051</v>
-      </c>
-      <c r="C23">
-        <v>24</v>
-      </c>
-      <c r="D23">
-        <v>3555544053.1558356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>280092937839.35834</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>141172.33759365499</v>
-      </c>
-      <c r="D28">
-        <v>214555.59406028991</v>
-      </c>
-      <c r="E28">
-        <v>287938.85052692483</v>
-      </c>
-      <c r="F28">
-        <v>4.4937214560558658E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>81585.332703862092</v>
-      </c>
-      <c r="D29">
-        <v>154968.58917049703</v>
-      </c>
-      <c r="E29">
-        <v>228351.84563713195</v>
-      </c>
-      <c r="F29">
-        <v>6.0003862744295589E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>-126181.22501307157</v>
-      </c>
-      <c r="D30">
-        <v>-59587.004889792879</v>
-      </c>
-      <c r="E30">
-        <v>7007.215233485811</v>
-      </c>
-      <c r="F30">
-        <v>8.5545202531357556E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3807CB4-D1A4-4513-846F-E9DCCDF160E3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -1833,9 +494,9 @@
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1890,7 +551,7 @@
         <v>1.5135674130029031E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1916,7 +577,7 @@
         <v>0.67864172233188191</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1942,7 +603,7 @@
         <v>7.1108833465172161E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1953,12 +614,12 @@
         <v>5.5889117092916095E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1981,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +665,7 @@
         <v>7.4960366535507371E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2018,7 +679,7 @@
         <v>391.30040080266321</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2029,12 +690,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2072,7 +733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2092,7 +753,7 @@
         <v>9.5844077119267013E-10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2112,7 +773,7 @@
         <v>0.93464253367965688</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2132,12 +793,12 @@
         <v>1.0031138142352347E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2157,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2177,7 +838,7 @@
         <v>2.2238674409042316E-18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2191,7 +852,7 @@
         <v>7212433199.7889585</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2202,12 +863,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2265,7 +926,7 @@
         <v>9.5720897874684852E-10</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2285,7 +946,7 @@
         <v>3.9926590541327522E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2310,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D1BC1-BCFB-4180-BE41-BE1E1D1CBB64}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -2318,9 +979,9 @@
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2375,7 +1036,7 @@
         <v>7.7812617320227595E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2401,7 +1062,7 @@
         <v>0.26200439582709589</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2427,7 +1088,7 @@
         <v>2.1441635404497839E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2438,12 +1099,12 @@
         <v>4.488653224853145E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2463,7 +1124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2483,7 +1144,7 @@
         <v>9.4706643758040457E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2497,7 +1158,7 @@
         <v>577.44144898160209</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2508,12 +1169,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2524,7 +1185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2544,7 +1205,7 @@
         <v>2.4221191377715723E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2564,7 +1225,7 @@
         <v>0.99729600581631395</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2584,12 +1245,12 @@
         <v>4.2485864188834821E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2609,7 +1270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2629,7 +1290,7 @@
         <v>7.4753275267876609E-7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2643,7 +1304,7 @@
         <v>3996559330.68922</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2654,12 +1315,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2670,7 +1331,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2690,7 +1351,7 @@
         <v>6.2477603421928762E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2710,7 +1371,7 @@
         <v>0.64965090944622661</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2735,7 +1396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C6B136-55F7-4310-83AF-4B88A434EA1D}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -2743,9 +1404,9 @@
       <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2774,7 +1435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2800,7 +1461,7 @@
         <v>2.0946880363637232E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2826,7 +1487,7 @@
         <v>0.27692246001814746</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2852,7 +1513,7 @@
         <v>6.3660959619171731E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2863,12 +1524,12 @@
         <v>3.1275875691518369E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2888,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +1569,7 @@
         <v>1.2607918419048826E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2922,7 +1583,7 @@
         <v>3487.0657926544691</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2933,12 +1594,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2949,7 +1610,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2969,7 +1630,7 @@
         <v>1.2511392735170546E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2989,7 +1650,7 @@
         <v>0.92100532072407748</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3009,12 +1670,12 @@
         <v>3.2071185596116436E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3034,7 +1695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +1715,7 @@
         <v>4.2892564449291427E-5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -3068,7 +1729,7 @@
         <v>937191482.0526737</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3079,12 +1740,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3095,7 +1756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3115,7 +1776,7 @@
         <v>2.4852923588225551E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3135,7 +1796,7 @@
         <v>9.7827684718185814E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3153,6 +1814,443 @@
       </c>
       <c r="F30">
         <v>1.7303747030148364E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B66EAA-37F9-4C3F-AA7D-ECC0B4831FBA}">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" activeCellId="1" sqref="B6 E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45.931364571428603</v>
+      </c>
+      <c r="C2">
+        <v>11.393233623459961</v>
+      </c>
+      <c r="D2">
+        <v>0.15906339358526672</v>
+      </c>
+      <c r="E2">
+        <v>362628.84813990491</v>
+      </c>
+      <c r="F2">
+        <v>37315.575767631402</v>
+      </c>
+      <c r="G2">
+        <v>0.56213778344724108</v>
+      </c>
+      <c r="H2">
+        <v>9.7644573664201761E-4</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>135.99309120000015</v>
+      </c>
+      <c r="C3">
+        <v>39.360303631948888</v>
+      </c>
+      <c r="D3">
+        <v>0.13139546305003358</v>
+      </c>
+      <c r="E3">
+        <v>148073.254079615</v>
+      </c>
+      <c r="F3">
+        <v>55852.733019895561</v>
+      </c>
+      <c r="G3">
+        <v>0.64904337707197546</v>
+      </c>
+      <c r="H3">
+        <v>5.9000619379140917E-2</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>47.818704000000253</v>
+      </c>
+      <c r="C4">
+        <v>22.379612404076092</v>
+      </c>
+      <c r="D4">
+        <v>0.23305503441918657</v>
+      </c>
+      <c r="E4">
+        <v>207660.25896940788</v>
+      </c>
+      <c r="F4">
+        <v>73713.103037229812</v>
+      </c>
+      <c r="G4">
+        <v>0.1275377970354383</v>
+      </c>
+      <c r="H4">
+        <v>7.3583793244702544E-4</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1.2134661218233541E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.2134661218233541E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>49833.319316674992</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>24916.659658337496</v>
+      </c>
+      <c r="E10">
+        <v>31.09794731576762</v>
+      </c>
+      <c r="F10">
+        <v>2.1711804584643055E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>19229.559614595382</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>801.23165060814097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>69062.878931270374</v>
+      </c>
+      <c r="C12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-124.89730267867147</v>
+      </c>
+      <c r="D16">
+        <v>-90.061726628571535</v>
+      </c>
+      <c r="E16">
+        <v>-55.226150578471604</v>
+      </c>
+      <c r="F16">
+        <v>3.2746748847012341E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-36.722915478671574</v>
+      </c>
+      <c r="D17">
+        <v>-1.8873394285716429</v>
+      </c>
+      <c r="E17">
+        <v>32.948236621528288</v>
+      </c>
+      <c r="F17">
+        <v>0.98996280546292381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>56.561617049136771</v>
+      </c>
+      <c r="D18">
+        <v>88.174387199999899</v>
+      </c>
+      <c r="E18">
+        <v>119.78715735086303</v>
+      </c>
+      <c r="F18">
+        <v>9.7920110719851294E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>194759880563.61829</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>97379940281.809143</v>
+      </c>
+      <c r="E22">
+        <v>27.388196806442743</v>
+      </c>
+      <c r="F22">
+        <v>6.3941344160138854E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>85333057275.740051</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>3555544053.1558356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>280092937839.35834</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>141172.33759365499</v>
+      </c>
+      <c r="D28">
+        <v>214555.59406028991</v>
+      </c>
+      <c r="E28">
+        <v>287938.85052692483</v>
+      </c>
+      <c r="F28">
+        <v>4.4937214560558658E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>81585.332703862092</v>
+      </c>
+      <c r="D29">
+        <v>154968.58917049703</v>
+      </c>
+      <c r="E29">
+        <v>228351.84563713195</v>
+      </c>
+      <c r="F29">
+        <v>6.0003862744295589E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-126181.22501307157</v>
+      </c>
+      <c r="D30">
+        <v>-59587.004889792879</v>
+      </c>
+      <c r="E30">
+        <v>7007.215233485811</v>
+      </c>
+      <c r="F30">
+        <v>8.5545202531357556E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3161,16 +2259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36909C10-8F85-4E7F-AFE6-5600F271C28A}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A60F2F6-E2E2-4AEB-9856-884C08666B65}">
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3198,73 +2296,398 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>27.506382000000038</v>
+        <v>18.641840000000002</v>
       </c>
       <c r="C2">
-        <v>7.5413813052962766</v>
+        <v>6.8648823194903272</v>
       </c>
       <c r="D2">
-        <v>0.3414849237707776</v>
+        <v>0.23534980199419492</v>
       </c>
       <c r="E2">
-        <v>1061835.6347029884</v>
+        <v>242749.64054364272</v>
       </c>
       <c r="F2">
-        <v>169594.70681153683</v>
+        <v>100178.23407657452</v>
       </c>
       <c r="G2">
-        <v>0.76343103030578086</v>
+        <v>0.19332739346947347</v>
       </c>
       <c r="H2">
-        <v>3.14103305564295E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.27357085450458141</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>32.063968000000081</v>
+        <v>90.135359999999764</v>
       </c>
       <c r="C3">
-        <v>1.3845708865581441</v>
+        <v>62.761014850269639</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1824684.1770303119</v>
+        <v>165056.63400161362</v>
       </c>
       <c r="F3">
-        <v>823021.24416006973</v>
+        <v>83444.477243809772</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1451511290919214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.1529707079602822E-3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>22.266815999999928</v>
+      </c>
+      <c r="C4">
+        <v>2.6762226960968185</v>
+      </c>
+      <c r="D4">
+        <v>0.85073937132170852</v>
+      </c>
+      <c r="E4">
+        <v>69118.609458584309</v>
+      </c>
+      <c r="F4">
+        <v>4858.0358460057278</v>
+      </c>
+      <c r="G4">
+        <v>0.61070644141131425</v>
+      </c>
+      <c r="H4">
+        <v>7.8273477437384997E-4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.16880644816905757</v>
+        <v>4.6848038981913654E-3</v>
       </c>
       <c r="E6">
-        <v>0.12013476621679806</v>
+        <v>0.43531018975534286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>12694.407925094325</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>6347.2039625471625</v>
+      </c>
+      <c r="E10">
+        <v>12.807518893920074</v>
+      </c>
+      <c r="F10">
+        <v>4.0507120298402793E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>8424.9313436129087</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>495.58419668311228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>21119.339268707234</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-108.3573911336434</v>
+      </c>
+      <c r="D16">
+        <v>-71.493519999999776</v>
+      </c>
+      <c r="E16">
+        <v>-34.629648866356142</v>
+      </c>
+      <c r="F16">
+        <v>3.2296088068883844E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-34.023702890634034</v>
+      </c>
+      <c r="D17">
+        <v>-3.6249759999999256</v>
+      </c>
+      <c r="E17">
+        <v>26.773750890634183</v>
+      </c>
+      <c r="F17">
+        <v>0.94987243086622097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>26.161834784981551</v>
+      </c>
+      <c r="D18">
+        <v>67.868543999999844</v>
+      </c>
+      <c r="E18">
+        <v>109.57525321501814</v>
+      </c>
+      <c r="F18">
+        <v>1.7443287976063315E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>108211449159.86734</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>54105724579.93367</v>
+      </c>
+      <c r="E22">
+        <v>7.3931067436451725</v>
+      </c>
+      <c r="F22">
+        <v>4.8953761339560042E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>124412828023.82022</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>7318401648.4600134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>232624277183.68756</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>-63968.00385920523</v>
+      </c>
+      <c r="D28">
+        <v>77693.006542029092</v>
+      </c>
+      <c r="E28">
+        <v>219354.01694326341</v>
+      </c>
+      <c r="F28">
+        <v>0.35956068922738482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>56814.369301856175</v>
+      </c>
+      <c r="D29">
+        <v>173631.03108505841</v>
+      </c>
+      <c r="E29">
+        <v>290447.69286826067</v>
+      </c>
+      <c r="F29">
+        <v>3.7686035757820147E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-64333.113192092002</v>
+      </c>
+      <c r="D30">
+        <v>95938.024543029329</v>
+      </c>
+      <c r="E30">
+        <v>256209.16227815067</v>
+      </c>
+      <c r="F30">
+        <v>0.29984309805965892</v>
       </c>
     </row>
   </sheetData>
@@ -3273,16 +2696,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140FEA0-2006-4C2D-9E4F-075C96DB45AD}">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11426B5D-269A-4AF7-97A5-40750C207CBB}">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F30"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3310,102 +2733,102 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>19.046295652173928</v>
+        <v>19.559053714285717</v>
       </c>
       <c r="C2">
-        <v>7.0331918314206314</v>
+        <v>8.4110929048615297</v>
       </c>
       <c r="D2">
-        <v>2.3591661108943226E-3</v>
+        <v>7.3212971978760949E-2</v>
       </c>
       <c r="E2">
-        <v>1074253.1113595597</v>
+        <v>293106.90362650121</v>
       </c>
       <c r="F2">
-        <v>492944.62865787151</v>
+        <v>98220.303236838023</v>
       </c>
       <c r="G2">
-        <v>0.66624614131752324</v>
+        <v>0.54783160385255614</v>
       </c>
       <c r="H2">
-        <v>5.9584559508607526E-12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.20543240654644268</v>
+      </c>
+      <c r="J2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>25.22716444444438</v>
+        <v>90.135359999999764</v>
       </c>
       <c r="C3">
-        <v>8.1633466809550335</v>
-      </c>
-      <c r="D3">
-        <v>4.8696719792949332E-3</v>
+        <v>62.761014850269639</v>
       </c>
       <c r="E3">
-        <v>473964.0409877036</v>
+        <v>165056.63400161362</v>
       </c>
       <c r="F3">
-        <v>149435.7343532471</v>
-      </c>
-      <c r="G3">
-        <v>0.33481467481920496</v>
+        <v>83444.477243809772</v>
       </c>
       <c r="H3">
-        <v>1.387799714036575E-7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.1529707079602822E-3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18.197727999999945</v>
+        <v>22.266815999999928</v>
       </c>
       <c r="C4">
-        <v>13.33908712669046</v>
+        <v>2.6762226960968185</v>
       </c>
       <c r="D4">
-        <v>1.1743031504373318E-2</v>
+        <v>0.85073937132170852</v>
       </c>
       <c r="E4">
-        <v>767407.06695146987</v>
+        <v>69118.609458584309</v>
       </c>
       <c r="F4">
-        <v>341163.21327019873</v>
+        <v>4858.0358460057278</v>
       </c>
       <c r="G4">
-        <v>6.9272034645751546E-2</v>
+        <v>0.61070644141131425</v>
       </c>
       <c r="H4">
-        <v>2.6602278229392873E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.8273477437384997E-4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>8.8585492543120361E-4</v>
-      </c>
-      <c r="E6">
-        <v>7.777951721289083E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3425,57 +2848,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>568.36465749900242</v>
+        <v>12673.088986690043</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>284.18232874950121</v>
+        <v>6336.5444933450217</v>
       </c>
       <c r="E10">
-        <v>4.0591463369192171</v>
+        <v>13.640497582393609</v>
       </c>
       <c r="F10">
-        <v>2.2896725538338117E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.1224314130247442E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>3710.5495031635055</v>
+        <v>8826.2429318526993</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>70.010367984217083</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>464.53910167645785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>4278.914160662508</v>
+        <v>21499.331918542743</v>
       </c>
       <c r="C12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3486,7 +2909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3494,19 +2917,19 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>-11.905733991662316</v>
+        <v>-105.41177353462669</v>
       </c>
       <c r="D16">
-        <v>-6.1808687922704486</v>
+        <v>-70.576306285714054</v>
       </c>
       <c r="E16">
-        <v>-0.45600359287858083</v>
+        <v>-35.740839036801418</v>
       </c>
       <c r="F16">
-        <v>3.1547808630888463E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.6238155039738356E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3514,19 +2937,19 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>-8.4002351270322588</v>
+        <v>-31.234335526168184</v>
       </c>
       <c r="D17">
-        <v>0.84856765217398333</v>
+        <v>-2.7077622857142103</v>
       </c>
       <c r="E17">
-        <v>10.097370431380225</v>
+        <v>25.818810954739764</v>
       </c>
       <c r="F17">
-        <v>0.97339322649890259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.96850561183158768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3534,24 +2957,24 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>-2.076519097098501</v>
+        <v>27.881326161941629</v>
       </c>
       <c r="D18">
-        <v>7.0294364444444319</v>
+        <v>67.868543999999844</v>
       </c>
       <c r="E18">
-        <v>16.135391985987365</v>
+        <v>107.85576183805806</v>
       </c>
       <c r="F18">
-        <v>0.16001966250977551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.0462134094133546E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3571,57 +2994,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22">
-        <v>4477114545990.6172</v>
+        <v>197212867642.64908</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>2238557272995.3086</v>
+        <v>98606433821.324539</v>
       </c>
       <c r="E22">
-        <v>18.229165897271702</v>
+        <v>13.436592554101511</v>
       </c>
       <c r="F22">
-        <v>9.4484260903996685E-7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.3086053712797913E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23">
-        <v>6508445648986.5137</v>
+        <v>139434327197.28299</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>122800861301.63234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7338648799.8569994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24">
-        <v>10985560194977.131</v>
+        <v>336647194839.93207</v>
       </c>
       <c r="C24">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3632,7 +3055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3640,19 +3063,19 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>360524.61993185501</v>
+        <v>-10407.889927536569</v>
       </c>
       <c r="D28">
-        <v>600289.07037185645</v>
+        <v>128050.26962488753</v>
       </c>
       <c r="E28">
-        <v>840053.52081185789</v>
+        <v>266508.4291773116</v>
       </c>
       <c r="F28">
-        <v>4.7153765769802902E-7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.288155814923658E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3660,19 +3083,19 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>-80505.279745342152</v>
+        <v>110605.66602665155</v>
       </c>
       <c r="D29">
-        <v>306846.04440808995</v>
+        <v>223988.29416791684</v>
       </c>
       <c r="E29">
-        <v>694197.3685615221</v>
+        <v>337370.92230918212</v>
       </c>
       <c r="F29">
-        <v>0.14578965795733334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.1553412459529575E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3680,16 +3103,16 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>-674811.7307467279</v>
+        <v>-62996.447267513751</v>
       </c>
       <c r="D30">
-        <v>-293443.02596376644</v>
+        <v>95938.024543029314</v>
       </c>
       <c r="E30">
-        <v>87925.67881919496</v>
+        <v>254872.49635357238</v>
       </c>
       <c r="F30">
-        <v>0.16186126691056135</v>
+        <v>0.29819593195662297</v>
       </c>
     </row>
   </sheetData>
@@ -3698,16 +3121,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B24916-B485-4B20-8D91-799352FF149C}">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704B60C5-18C0-46B3-9DD3-C77E9067C142}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" activeCellId="1" sqref="B6 E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3735,102 +3158,93 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16.322655999999977</v>
+        <v>49.340140800000015</v>
       </c>
       <c r="C2">
-        <v>2.9424169821891368</v>
+        <v>17.673559397767601</v>
       </c>
       <c r="D2">
-        <v>0.11292742391942075</v>
+        <v>0.51982228060807578</v>
       </c>
       <c r="E2">
-        <v>844118.23774678353</v>
+        <v>29.986415604185208</v>
       </c>
       <c r="F2">
-        <v>311823.52561919269</v>
+        <v>13.142748502568741</v>
       </c>
       <c r="G2">
-        <v>0.62941903200189997</v>
+        <v>0.3812948505968663</v>
       </c>
       <c r="H2">
-        <v>5.9851476119521241E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.2478747975226412E-3</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.513164800000048</v>
+        <v>116.71858985714296</v>
       </c>
       <c r="C3">
-        <v>2.1669918320222328</v>
+        <v>54.934630147755001</v>
       </c>
       <c r="D3">
-        <v>0.97437102323940872</v>
+        <v>0.23183693830365212</v>
       </c>
       <c r="E3">
-        <v>745498.92209877563</v>
+        <v>7.6207731733357358</v>
       </c>
       <c r="F3">
-        <v>141056.39507136738</v>
+        <v>3.4423708611331696</v>
       </c>
       <c r="G3">
-        <v>0.14875448388413429</v>
+        <v>0.42459124241726576</v>
       </c>
       <c r="H3">
-        <v>2.6243395344848208E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.0228978442887779E-5</v>
+      </c>
+      <c r="J3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>17.428735999999844</v>
-      </c>
-      <c r="C4">
-        <v>6.3177128811004168</v>
-      </c>
-      <c r="D4">
-        <v>0.91258569453599991</v>
-      </c>
-      <c r="E4">
-        <v>705532.75100975286</v>
-      </c>
-      <c r="F4">
-        <v>340482.55894694891</v>
-      </c>
-      <c r="G4">
-        <v>4.6715959249958349E-3</v>
-      </c>
-      <c r="H4">
-        <v>2.9476094044156298E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.36700138509022512</v>
+        <v>1.8795795861149243E-2</v>
       </c>
       <c r="E6">
-        <v>0.84705434199782681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.0369796432214635E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3850,57 +3264,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>5.1044735026354244</v>
+        <v>16725.783042853705</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>2.5522367513177122</v>
+        <v>16725.783042853705</v>
       </c>
       <c r="E10">
-        <v>0.1365667207725009</v>
+        <v>7.0239950481795619</v>
       </c>
       <c r="F10">
-        <v>0.87349609361592861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1.683076482848523E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>261.63998312569015</v>
+        <v>40480.995470263908</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>18.688570223263582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2381.235027662583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>266.74445662832557</v>
+        <v>57206.778513117613</v>
       </c>
       <c r="C12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3911,7 +3325,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -3919,64 +3333,24 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>-8.0418253179129646</v>
+        <v>-121.01655006864992</v>
       </c>
       <c r="D16">
-        <v>-1.190508800000071</v>
+        <v>-67.37844905714293</v>
       </c>
       <c r="E16">
-        <v>5.6608077179128227</v>
+        <v>-13.74034804563594</v>
       </c>
       <c r="F16">
-        <v>0.89309829692240195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>-7.6385539869101899</v>
-      </c>
-      <c r="D17">
-        <v>-1.1060799999998672</v>
-      </c>
-      <c r="E17">
-        <v>5.4263939869104556</v>
-      </c>
-      <c r="F17">
-        <v>0.89816930413894991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>-6.7668877179126898</v>
-      </c>
-      <c r="D18">
-        <v>8.4428800000203807E-2</v>
-      </c>
-      <c r="E18">
-        <v>6.9357453179130975</v>
-      </c>
-      <c r="F18">
-        <v>0.99942667474407632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.6830764878205784E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -3996,57 +3370,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22">
-        <v>60653274372.999023</v>
+        <v>1842.9230154801578</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>30326637186.499512</v>
+        <v>1842.9230154801578</v>
       </c>
       <c r="E22">
-        <v>0.37067685870476091</v>
+        <v>37.077598702073189</v>
       </c>
       <c r="F22">
-        <v>0.69684257921710779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.203608942031062E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23">
-        <v>1145399046745.3479</v>
+        <v>844.97627569961492</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23">
-        <v>81814217624.667709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49.704486805859702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24">
-        <v>1206052321118.3469</v>
+        <v>2687.8992911797727</v>
       </c>
       <c r="C24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4057,7 +3431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4065,56 +3439,16 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>-354695.99132987711</v>
+        <v>14.61620707739015</v>
       </c>
       <c r="D28">
-        <v>98619.315648007905</v>
+        <v>22.365642430849473</v>
       </c>
       <c r="E28">
-        <v>551934.62262589298</v>
+        <v>30.115077784308795</v>
       </c>
       <c r="F28">
-        <v>0.83830873872285605</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>-293633.69959876401</v>
-      </c>
-      <c r="D29">
-        <v>138585.48673703079</v>
-      </c>
-      <c r="E29">
-        <v>570804.67307282565</v>
-      </c>
-      <c r="F29">
-        <v>0.68570912649639948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>-413349.13588886213</v>
-      </c>
-      <c r="D30">
-        <v>39966.171089022886</v>
-      </c>
-      <c r="E30">
-        <v>493281.4780669079</v>
-      </c>
-      <c r="F30">
-        <v>0.97113402588729958</v>
+        <v>1.2036279927851723E-5</v>
       </c>
     </row>
   </sheetData>
@@ -4123,19 +3457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB529ECE-AC12-453D-9AB8-07F9977E3C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C670E57A-6AE2-42D6-8784-A38523D12DD6}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4167,110 +3498,104 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>16.322655999999977</v>
+        <v>45.826436571428566</v>
       </c>
       <c r="C2">
-        <v>2.9424169821891368</v>
+        <v>7.572449214686773</v>
       </c>
       <c r="D2">
-        <v>0.11292742391942075</v>
+        <v>0.3567518330505744</v>
       </c>
       <c r="E2">
-        <v>844118.23774678353</v>
+        <v>125.49424612870222</v>
       </c>
       <c r="F2">
-        <v>311823.52561919269</v>
+        <v>71.186168154940304</v>
       </c>
       <c r="G2">
-        <v>0.62941903200189997</v>
+        <v>0.52922102003002269</v>
       </c>
       <c r="H2">
-        <v>5.9851476119521241E-4</v>
+        <v>5.6024136040194739E-3</v>
       </c>
       <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>84.759376000000131</v>
+      </c>
+      <c r="C3">
+        <v>30.813157048197986</v>
+      </c>
+      <c r="D3">
+        <v>7.1925815254022793E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.0574952866181904</v>
+      </c>
+      <c r="F3">
+        <v>1.5495732808135829</v>
+      </c>
+      <c r="G3">
+        <v>0.74887684224112794</v>
+      </c>
+      <c r="H3">
+        <v>1.5901494048599862E-2</v>
+      </c>
+      <c r="J3">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>24.210615272727161</v>
-      </c>
-      <c r="C3">
-        <v>2.1978322784662985</v>
-      </c>
-      <c r="D3">
-        <v>0.68151126162547326</v>
-      </c>
-      <c r="E3">
-        <v>614594.99816723028</v>
-      </c>
-      <c r="F3">
-        <v>114268.04806196768</v>
-      </c>
-      <c r="G3">
-        <v>0.94300693872309993</v>
-      </c>
-      <c r="H3">
-        <v>1.3633199041906963E-6</v>
-      </c>
-      <c r="J3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>17.428735999999844</v>
+        <v>26.756768666666176</v>
       </c>
       <c r="C4">
-        <v>6.3177128811004168</v>
-      </c>
-      <c r="D4">
-        <v>0.91258569453599991</v>
+        <v>4.9127569606466324</v>
       </c>
       <c r="E4">
-        <v>705532.75100975286</v>
+        <v>3.318629461438896</v>
       </c>
       <c r="F4">
-        <v>340482.55894694891</v>
-      </c>
-      <c r="G4">
-        <v>4.6715959249958349E-3</v>
+        <v>1.8892677137179121</v>
       </c>
       <c r="H4">
-        <v>2.9476094044156298E-4</v>
+        <v>1.4544759862259782E-2</v>
       </c>
       <c r="J4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.9960581896422797E-4</v>
+        <v>7.9527283115616491E-4</v>
       </c>
       <c r="E6">
-        <v>9.4343769126980045E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>7.9527283115616491E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4290,57 +3615,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10">
-        <v>312.4414292183377</v>
+        <v>8241.0399747109768</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>156.22071460916885</v>
+        <v>4120.5199873554884</v>
       </c>
       <c r="E10">
-        <v>10.730873159656964</v>
+        <v>10.422409324913911</v>
       </c>
       <c r="F10">
-        <v>6.8206231625840064E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1.9903641749786406E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11">
-        <v>291.16123596816942</v>
+        <v>5139.57552094739</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14.55806179840847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>395.35196314979925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12">
-        <v>603.60266518650712</v>
+        <v>13380.615495658367</v>
       </c>
       <c r="C12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4351,7 +3676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -4359,19 +3684,19 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>-12.787120244842622</v>
+        <v>-68.141813489011724</v>
       </c>
       <c r="D16">
-        <v>-7.8879592727271834</v>
+        <v>-38.932939428571572</v>
       </c>
       <c r="E16">
-        <v>-2.9887983006117436</v>
+        <v>-9.7240653681314271</v>
       </c>
       <c r="F16">
-        <v>1.6424381857774728E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.8198191374104793E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4379,19 +3704,19 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>-6.6793308259667024</v>
+        <v>-17.159481512600699</v>
       </c>
       <c r="D17">
-        <v>-1.1060799999998672</v>
+        <v>19.069667904762383</v>
       </c>
       <c r="E17">
-        <v>4.467170825966968</v>
+        <v>55.298817322125466</v>
       </c>
       <c r="F17">
-        <v>0.8711338244575062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.37433512144356096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -4399,24 +3724,24 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>1.8827183006118764</v>
+        <v>20.878776296102615</v>
       </c>
       <c r="D18">
-        <v>6.7818792727273163</v>
+        <v>58.002607333333955</v>
       </c>
       <c r="E18">
-        <v>11.681040244842755</v>
+        <v>95.126438370565296</v>
       </c>
       <c r="F18">
-        <v>6.0724041639809156E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.1860685962358248E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -4436,57 +3761,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22">
-        <v>204963166746.62253</v>
+        <v>58942.348068235871</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>102481583373.31126</v>
+        <v>29471.174034117936</v>
       </c>
       <c r="E22">
-        <v>1.7131898173710305</v>
+        <v>12.592876291617515</v>
       </c>
       <c r="F22">
-        <v>0.20570658161944277</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.0839134355446324E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
       <c r="B23">
-        <v>1196383288462.1509</v>
+        <v>30423.967771251882</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>59819164423.107544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2340.3052131732215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24">
-        <v>1401346455208.7734</v>
+        <v>89366.315839487754</v>
       </c>
       <c r="C24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -4497,7 +3822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4505,19 +3830,19 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>-84520.471786383248</v>
+        <v>51.37120168847602</v>
       </c>
       <c r="D28">
-        <v>229523.23957955325</v>
+        <v>122.43675084208402</v>
       </c>
       <c r="E28">
-        <v>543566.95094548981</v>
+        <v>193.50229999569203</v>
       </c>
       <c r="F28">
-        <v>0.17964274843648553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.4730300328456014E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4525,19 +3850,19 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>-218668.41525185341</v>
+        <v>34.029651390222142</v>
       </c>
       <c r="D29">
-        <v>138585.48673703079</v>
+        <v>122.17561666726331</v>
       </c>
       <c r="E29">
-        <v>495839.38872591499</v>
+        <v>210.32158194430448</v>
       </c>
       <c r="F29">
-        <v>0.59668725163425873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.5559272750518325E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -4545,453 +3870,16 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>-404981.46420845896</v>
+        <v>-90.583870816003241</v>
       </c>
       <c r="D30">
-        <v>-90937.752842522459</v>
+        <v>-0.26113417482070389</v>
       </c>
       <c r="E30">
-        <v>223105.95852341404</v>
+        <v>90.061602466361819</v>
       </c>
       <c r="F30">
-        <v>0.747316161835341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93BC2BE-6C64-44C5-937F-FBF881E14D17}">
-  <dimension ref="A1:J30"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" activeCellId="1" sqref="B6 E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2">
-        <v>55.99046400000001</v>
-      </c>
-      <c r="C2">
-        <v>4.0087851904415928</v>
-      </c>
-      <c r="D2">
-        <v>0.70661875701295707</v>
-      </c>
-      <c r="E2">
-        <v>211094.38375324267</v>
-      </c>
-      <c r="F2">
-        <v>15296.405347274058</v>
-      </c>
-      <c r="G2">
-        <v>0.16456398818029461</v>
-      </c>
-      <c r="H2">
-        <v>5.2607666906134831E-4</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>43.366353777777746</v>
-      </c>
-      <c r="C3">
-        <v>11.17477875969365</v>
-      </c>
-      <c r="D3">
-        <v>3.9164625883393443E-2</v>
-      </c>
-      <c r="E3">
-        <v>406845.17107080476</v>
-      </c>
-      <c r="F3">
-        <v>206995.46087211909</v>
-      </c>
-      <c r="G3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H3">
-        <v>2.6142509557125493E-7</v>
-      </c>
-      <c r="J3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4">
-        <v>26.96594742857139</v>
-      </c>
-      <c r="C4">
-        <v>2.9771810728435053</v>
-      </c>
-      <c r="D4">
-        <v>0.73488307501817984</v>
-      </c>
-      <c r="E4">
-        <v>181987.42873845823</v>
-      </c>
-      <c r="F4">
-        <v>65445.206155783984</v>
-      </c>
-      <c r="G4">
-        <v>0.87007176285280741</v>
-      </c>
-      <c r="H4">
-        <v>5.7325503554020774E-2</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3.6314886002930214E-3</v>
-      </c>
-      <c r="E6">
-        <v>1.9253962090327181E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>2981.3474793144283</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1490.6737396572141</v>
-      </c>
-      <c r="E10">
-        <v>16.678270436737428</v>
-      </c>
-      <c r="F10">
-        <v>6.318970818681675E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>3396.3714835922187</v>
-      </c>
-      <c r="C11">
-        <v>38</v>
-      </c>
-      <c r="D11">
-        <v>89.378196936637337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>6377.718962906647</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2.8448674208877271</v>
-      </c>
-      <c r="D16">
-        <v>12.624110222222257</v>
-      </c>
-      <c r="E16">
-        <v>22.403353023556786</v>
-      </c>
-      <c r="F16">
-        <v>8.7568101423560751E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>16.700205533003889</v>
-      </c>
-      <c r="D17">
-        <v>29.024516571428613</v>
-      </c>
-      <c r="E17">
-        <v>41.348827609853338</v>
-      </c>
-      <c r="F17">
-        <v>3.7790926029623861E-6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>6.6211635478718271</v>
-      </c>
-      <c r="D18">
-        <v>16.400406349206357</v>
-      </c>
-      <c r="E18">
-        <v>26.179649150540886</v>
-      </c>
-      <c r="F18">
-        <v>6.1985416387255743E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>410724765997.21387</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>205362382998.60693</v>
-      </c>
-      <c r="E22">
-        <v>6.8386492734117938</v>
-      </c>
-      <c r="F22">
-        <v>2.9053073674119032E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>1141127471515.1128</v>
-      </c>
-      <c r="C23">
-        <v>38</v>
-      </c>
-      <c r="D23">
-        <v>30029670303.029285</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>1551852237512.3267</v>
-      </c>
-      <c r="C24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>-375003.0789080027</v>
-      </c>
-      <c r="D28">
-        <v>-195750.78731756203</v>
-      </c>
-      <c r="E28">
-        <v>-16498.495727121335</v>
-      </c>
-      <c r="F28">
-        <v>2.9686488419823021E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29">
-        <v>-196796.11752264359</v>
-      </c>
-      <c r="D29">
-        <v>29106.955014784471</v>
-      </c>
-      <c r="E29">
-        <v>255010.02755221253</v>
-      </c>
-      <c r="F29">
-        <v>0.94709986207024877</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>45605.450741905806</v>
-      </c>
-      <c r="D30">
-        <v>224857.7423323465</v>
-      </c>
-      <c r="E30">
-        <v>404110.03392278717</v>
-      </c>
-      <c r="F30">
-        <v>1.1051419834227083E-2</v>
+        <v>0.99996787171359836</v>
       </c>
     </row>
   </sheetData>
